--- a/NformTester/NformTester/keywordscripts/TST2801_AlarmUnderMaintenanceMode.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST2801_AlarmUnderMaintenanceMode.xlsx
@@ -3873,13 +3873,6 @@
     <t>SingleManual</t>
   </si>
   <si>
-    <t>10.146.88.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ABC GXT UPS"</t>
-  </si>
-  <si>
     <t>"Description for GXT"</t>
   </si>
   <si>
@@ -3924,10 +3917,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10.146.88.10:163</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Alarms</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3964,111 +3953,123 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Enabled</t>
+  </si>
+  <si>
+    <t>"action-one"</t>
+  </si>
+  <si>
+    <t>"nform testing"</t>
+  </si>
+  <si>
+    <t>"Critical"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Verify that:Actioin will be performed.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Write file"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"&gt;"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VerifyTxtfileValues</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"C:\Nform\writefile_result.txt"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"C:/Nform/writefile_result.txt"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"test-writefile"</t>
+  </si>
+  <si>
+    <t>;Scenario1---Create an action.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"action-one"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">;Verify that:Actioin will not be performed. Alarm will still be showed on the alarm list and the state of this alarm is under maintenance icon. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">;Turn off maintenance of this deivce and sent this alarm. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Verify that:Actioin will be performed. And the state of this alarm is back to normal.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NotContains</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">;Repeat above steps,Verify the state icon and incident of this alarm. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>;The goal of this test is to verify the state of alarm triggered by device under mainenance mode.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Enabled</t>
-  </si>
-  <si>
-    <t>"action-one"</t>
-  </si>
-  <si>
-    <t>"nform testing"</t>
-  </si>
-  <si>
-    <t>"Critical"</t>
+    <t>$SNMPdevice_0$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>$GXT_0_NAME$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$GXT_Ip_Port$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Incident</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Incident$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>"{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Verify that:Actioin will be performed.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Write file"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"&gt;"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VerifyTxtfileValues</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"C:\Nform\writefile_result.txt"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"C:/Nform/writefile_result.txt"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"test-writefile"</t>
-  </si>
-  <si>
-    <t>;Scenario1---Create an action.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"action-one"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ABC GXT UPS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">;Verify that:Actioin will not be performed. Alarm will still be showed on the alarm list and the state of this alarm is under maintenance icon. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">;Turn off maintenance of this deivce and sent this alarm. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Verify that:Actioin will be performed. And the state of this alarm is back to normal.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NotContains</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">;Repeat above steps,Verify the state icon and incident of this alarm. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pass</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4620,7 +4621,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O220"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -4776,7 +4779,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -4800,7 +4803,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>881</v>
+        <v>902</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -4842,13 +4845,13 @@
         <v>823</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
       <c r="C8" s="4">
         <v>7</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>632</v>
@@ -4861,19 +4864,19 @@
         <v>856</v>
       </c>
       <c r="I8" s="4" t="s">
+        <v>903</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>904</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>857</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="L8" s="4" t="s">
         <v>858</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="M8" s="4" t="s">
         <v>859</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>860</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>861</v>
       </c>
       <c r="N8" s="14"/>
     </row>
@@ -4888,7 +4891,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -4945,7 +4948,7 @@
         <v>27</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -5004,7 +5007,7 @@
         <v>3</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -5050,10 +5053,10 @@
         <v>14</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="F15" s="4">
         <v>2</v>
@@ -5076,7 +5079,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -5098,7 +5101,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>19</v>
@@ -5126,7 +5129,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>19</v>
@@ -5156,7 +5159,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>361</v>
@@ -5168,10 +5171,10 @@
         <v>7</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="J19" s="4" t="b">
         <v>1</v>
@@ -5216,7 +5219,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>361</v>
@@ -5244,7 +5247,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>365</v>
@@ -5256,7 +5259,7 @@
         <v>4</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
@@ -5270,7 +5273,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>365</v>
@@ -5282,7 +5285,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -5296,7 +5299,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>365</v>
@@ -5368,7 +5371,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>416</v>
@@ -5380,7 +5383,7 @@
         <v>4</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="4"/>
@@ -5394,7 +5397,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>416</v>
@@ -5406,7 +5409,7 @@
         <v>4</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="4"/>
@@ -5432,7 +5435,7 @@
         <v>4</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="4"/>
@@ -5470,7 +5473,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>416</v>
@@ -5482,7 +5485,7 @@
         <v>4</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>858</v>
+        <v>904</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -5544,7 +5547,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>416</v>
@@ -5580,7 +5583,7 @@
         <v>60</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="4"/>
@@ -5664,7 +5667,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>19</v>
@@ -5688,7 +5691,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>19</v>
@@ -5724,7 +5727,7 @@
         <v>56</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="4"/>
@@ -5777,7 +5780,7 @@
         <v>2</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>858</v>
+        <v>904</v>
       </c>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -5802,7 +5805,7 @@
         <v>13</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
@@ -5828,7 +5831,7 @@
         <v>3</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>886</v>
+        <v>908</v>
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
@@ -5854,7 +5857,7 @@
         <v>58</v>
       </c>
       <c r="H46" s="9">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I46" s="4">
         <v>0</v>
@@ -5942,7 +5945,7 @@
         <v>49</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
@@ -5993,7 +5996,7 @@
         <v>27</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
@@ -6044,7 +6047,7 @@
         <v>3</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
@@ -6082,10 +6085,10 @@
         <v>55</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F56" s="4">
         <v>2</v>
@@ -6104,7 +6107,7 @@
         <v>56</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="E57" s="9"/>
       <c r="F57" s="4"/>
@@ -6122,7 +6125,7 @@
         <v>57</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>814</v>
@@ -6130,13 +6133,13 @@
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
       <c r="H58" s="9" t="s">
-        <v>871</v>
+        <v>905</v>
       </c>
       <c r="I58" s="9">
         <v>1</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
@@ -6148,13 +6151,13 @@
         <v>58</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F59" s="4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="9"/>
@@ -6170,7 +6173,7 @@
         <v>59</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="E60" s="9"/>
       <c r="F60" s="4"/>
@@ -6188,7 +6191,7 @@
         <v>60</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>19</v>
@@ -6212,13 +6215,13 @@
         <v>61</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>2</v>
@@ -6236,7 +6239,7 @@
         <v>62</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E63" s="9" t="s">
         <v>19</v>
@@ -6264,7 +6267,7 @@
         <v>63</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E64" s="9" t="s">
         <v>19</v>
@@ -6288,10 +6291,10 @@
         <v>64</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F65" s="4">
         <v>2</v>
@@ -6322,7 +6325,7 @@
         <v>60</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>883</v>
+        <v>893</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="4"/>
@@ -6348,7 +6351,7 @@
         <v>60</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
@@ -6362,7 +6365,7 @@
         <v>67</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="E68" s="9" t="s">
         <v>226</v>
@@ -6374,7 +6377,7 @@
         <v>60</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
@@ -6412,18 +6415,18 @@
         <v>69</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="F70" s="4"/>
       <c r="G70" s="9"/>
       <c r="H70" s="4" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>899</v>
+        <v>904</v>
       </c>
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
@@ -6436,7 +6439,7 @@
         <v>70</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="E71" s="9"/>
       <c r="F71" s="4"/>
@@ -6484,7 +6487,7 @@
         <v>19</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>2</v>
@@ -6514,7 +6517,7 @@
         <v>56</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>858</v>
+        <v>904</v>
       </c>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
@@ -6624,7 +6627,7 @@
         <v>78</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
@@ -6675,7 +6678,7 @@
         <v>27</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="H81" s="9"/>
       <c r="I81" s="9"/>
@@ -6726,7 +6729,7 @@
         <v>3</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
@@ -6764,10 +6767,10 @@
         <v>84</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="F85" s="4">
         <v>2</v>
@@ -6786,7 +6789,7 @@
         <v>85</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="E86" s="9"/>
       <c r="F86" s="4"/>
@@ -6804,7 +6807,7 @@
         <v>86</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E87" s="9" t="s">
         <v>814</v>
@@ -6812,13 +6815,13 @@
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
       <c r="H87" s="9" t="s">
-        <v>871</v>
+        <v>905</v>
       </c>
       <c r="I87" s="9">
         <v>1</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="K87" s="4"/>
       <c r="L87" s="4"/>
@@ -6830,13 +6833,13 @@
         <v>87</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F88" s="4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="9"/>
@@ -6852,7 +6855,7 @@
         <v>88</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
@@ -6870,7 +6873,7 @@
         <v>89</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E90" s="9" t="s">
         <v>19</v>
@@ -6894,13 +6897,13 @@
         <v>90</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E91" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="G91" s="4" t="s">
         <v>2</v>
@@ -6918,7 +6921,7 @@
         <v>91</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E92" s="9" t="s">
         <v>19</v>
@@ -6946,7 +6949,7 @@
         <v>92</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E93" s="9" t="s">
         <v>19</v>
@@ -6970,10 +6973,10 @@
         <v>93</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F94" s="4">
         <v>2</v>
@@ -7004,7 +7007,7 @@
         <v>61</v>
       </c>
       <c r="H95" s="9" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="4"/>
@@ -7030,7 +7033,7 @@
         <v>61</v>
       </c>
       <c r="H96" s="9" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
@@ -7050,19 +7053,19 @@
         <v>226</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>235</v>
+        <v>906</v>
       </c>
       <c r="G97" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H97" s="9" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="I97" s="9" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>902</v>
+        <v>907</v>
       </c>
       <c r="K97" s="4"/>
       <c r="L97" s="4"/>
@@ -7098,10 +7101,10 @@
         <v>98</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F99" s="4">
         <v>1</v>
@@ -7120,7 +7123,7 @@
         <v>99</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="E100" s="9"/>
       <c r="F100" s="4"/>
@@ -7168,7 +7171,7 @@
         <v>19</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="G102" s="4" t="s">
         <v>2</v>
@@ -7198,7 +7201,7 @@
         <v>56</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>858</v>
+        <v>904</v>
       </c>
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
@@ -7308,7 +7311,7 @@
         <v>107</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
@@ -7359,7 +7362,7 @@
         <v>27</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="H110" s="9"/>
       <c r="I110" s="9"/>
@@ -7410,7 +7413,7 @@
         <v>3</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="I112" s="4"/>
       <c r="J112" s="4"/>
@@ -7448,10 +7451,10 @@
         <v>113</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="F114" s="4">
         <v>2</v>
@@ -7470,7 +7473,7 @@
         <v>114</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="E115" s="9"/>
       <c r="F115" s="4"/>
@@ -7488,7 +7491,7 @@
         <v>115</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E116" s="9" t="s">
         <v>814</v>
@@ -7496,13 +7499,13 @@
       <c r="F116" s="4"/>
       <c r="G116" s="4"/>
       <c r="H116" s="9" t="s">
-        <v>871</v>
+        <v>905</v>
       </c>
       <c r="I116" s="9">
         <v>1</v>
       </c>
       <c r="J116" s="4" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="K116" s="4"/>
       <c r="L116" s="4"/>
@@ -7514,13 +7517,13 @@
         <v>116</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F117" s="4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G117" s="4"/>
       <c r="H117" s="9"/>
@@ -7536,7 +7539,7 @@
         <v>117</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="E118" s="9"/>
       <c r="F118" s="4"/>
@@ -7554,7 +7557,7 @@
         <v>118</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E119" s="9" t="s">
         <v>19</v>
@@ -7578,13 +7581,13 @@
         <v>119</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E120" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="G120" s="4" t="s">
         <v>2</v>
@@ -7602,7 +7605,7 @@
         <v>120</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E121" s="9" t="s">
         <v>19</v>
@@ -7630,7 +7633,7 @@
         <v>121</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E122" s="9" t="s">
         <v>19</v>
@@ -7654,10 +7657,10 @@
         <v>122</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F123" s="4">
         <v>2</v>
@@ -7688,7 +7691,7 @@
         <v>60</v>
       </c>
       <c r="H124" s="9" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="4"/>
@@ -7714,7 +7717,7 @@
         <v>60</v>
       </c>
       <c r="H125" s="9" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="I125" s="4"/>
       <c r="J125" s="4"/>
@@ -7740,13 +7743,13 @@
         <v>7</v>
       </c>
       <c r="H126" s="9" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="I126" s="4" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="J126" s="4" t="s">
-        <v>902</v>
+        <v>907</v>
       </c>
       <c r="K126" s="4"/>
       <c r="L126" s="4"/>
@@ -7782,7 +7785,7 @@
         <v>127</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
@@ -7800,7 +7803,7 @@
         <v>128</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
@@ -7851,7 +7854,7 @@
         <v>27</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="H131" s="9"/>
       <c r="I131" s="9"/>
@@ -7902,7 +7905,7 @@
         <v>3</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="I133" s="4"/>
       <c r="J133" s="4"/>
@@ -7940,10 +7943,10 @@
         <v>134</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F135" s="4">
         <v>2</v>
@@ -7962,7 +7965,7 @@
         <v>135</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="E136" s="9"/>
       <c r="F136" s="4"/>
@@ -7980,7 +7983,7 @@
         <v>136</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E137" s="9" t="s">
         <v>814</v>
@@ -7988,13 +7991,13 @@
       <c r="F137" s="4"/>
       <c r="G137" s="4"/>
       <c r="H137" s="9" t="s">
-        <v>871</v>
+        <v>905</v>
       </c>
       <c r="I137" s="9">
         <v>1</v>
       </c>
       <c r="J137" s="4" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="K137" s="4"/>
       <c r="L137" s="4"/>
@@ -8006,13 +8009,13 @@
         <v>137</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F138" s="4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G138" s="4"/>
       <c r="H138" s="9"/>
@@ -8028,7 +8031,7 @@
         <v>138</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="E139" s="9"/>
       <c r="F139" s="4"/>
@@ -8046,7 +8049,7 @@
         <v>139</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E140" s="9" t="s">
         <v>19</v>
@@ -8070,13 +8073,13 @@
         <v>140</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E141" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="G141" s="4" t="s">
         <v>2</v>
@@ -8094,7 +8097,7 @@
         <v>141</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E142" s="9" t="s">
         <v>19</v>
@@ -8122,7 +8125,7 @@
         <v>142</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E143" s="9" t="s">
         <v>19</v>
@@ -8146,10 +8149,10 @@
         <v>143</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F144" s="4">
         <v>2</v>
@@ -8180,7 +8183,7 @@
         <v>60</v>
       </c>
       <c r="H145" s="9" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="I145" s="9"/>
       <c r="J145" s="4"/>
@@ -8206,7 +8209,7 @@
         <v>60</v>
       </c>
       <c r="H146" s="9" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="I146" s="4"/>
       <c r="J146" s="4"/>
@@ -8232,7 +8235,7 @@
         <v>60</v>
       </c>
       <c r="H147" s="9" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="I147" s="4"/>
       <c r="J147" s="4"/>
@@ -8270,18 +8273,18 @@
         <v>148</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="F149" s="4"/>
       <c r="G149" s="9"/>
       <c r="H149" s="4" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="I149" s="4" t="s">
-        <v>899</v>
+        <v>904</v>
       </c>
       <c r="J149" s="4"/>
       <c r="K149" s="4"/>
@@ -8294,7 +8297,7 @@
         <v>149</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="E150" s="9"/>
       <c r="F150" s="4"/>
@@ -8342,7 +8345,7 @@
         <v>19</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="G152" s="4" t="s">
         <v>2</v>
@@ -8372,7 +8375,7 @@
         <v>56</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>858</v>
+        <v>904</v>
       </c>
       <c r="I153" s="4"/>
       <c r="J153" s="4"/>
@@ -8482,7 +8485,7 @@
         <v>157</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
@@ -8533,7 +8536,7 @@
         <v>27</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="H160" s="9"/>
       <c r="I160" s="9"/>
@@ -8584,7 +8587,7 @@
         <v>3</v>
       </c>
       <c r="H162" s="4" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="I162" s="4"/>
       <c r="J162" s="4"/>
@@ -8622,10 +8625,10 @@
         <v>163</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E164" s="9" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F164" s="4">
         <v>2</v>
@@ -8644,7 +8647,7 @@
         <v>164</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="E165" s="9"/>
       <c r="F165" s="4"/>
@@ -8662,7 +8665,7 @@
         <v>165</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E166" s="9" t="s">
         <v>814</v>
@@ -8670,13 +8673,13 @@
       <c r="F166" s="4"/>
       <c r="G166" s="4"/>
       <c r="H166" s="9" t="s">
-        <v>871</v>
+        <v>905</v>
       </c>
       <c r="I166" s="9">
         <v>1</v>
       </c>
       <c r="J166" s="4" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="K166" s="4"/>
       <c r="L166" s="4"/>
@@ -8688,13 +8691,13 @@
         <v>166</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E167" s="9" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F167" s="4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G167" s="4"/>
       <c r="H167" s="9"/>
@@ -8710,7 +8713,7 @@
         <v>167</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="E168" s="4"/>
       <c r="F168" s="4"/>
@@ -8728,7 +8731,7 @@
         <v>168</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E169" s="9" t="s">
         <v>19</v>
@@ -8752,13 +8755,13 @@
         <v>169</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E170" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F170" s="4" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="G170" s="4" t="s">
         <v>2</v>
@@ -8776,7 +8779,7 @@
         <v>170</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E171" s="9" t="s">
         <v>19</v>
@@ -8804,7 +8807,7 @@
         <v>171</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E172" s="9" t="s">
         <v>19</v>
@@ -8828,10 +8831,10 @@
         <v>172</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E173" s="9" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F173" s="4">
         <v>2</v>
@@ -8862,7 +8865,7 @@
         <v>61</v>
       </c>
       <c r="H174" s="9" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="I174" s="9"/>
       <c r="J174" s="4"/>
@@ -8888,7 +8891,7 @@
         <v>61</v>
       </c>
       <c r="H175" s="9" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="I175" s="4"/>
       <c r="J175" s="4"/>
@@ -8914,13 +8917,13 @@
         <v>7</v>
       </c>
       <c r="H176" s="9" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="I176" s="9" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="J176" s="4" t="s">
-        <v>902</v>
+        <v>907</v>
       </c>
       <c r="K176" s="4"/>
       <c r="L176" s="4"/>
@@ -8956,10 +8959,10 @@
         <v>177</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E178" s="9" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F178" s="4">
         <v>1</v>
@@ -8978,7 +8981,7 @@
         <v>178</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="E179" s="9"/>
       <c r="F179" s="4"/>
@@ -9026,7 +9029,7 @@
         <v>19</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="G181" s="4" t="s">
         <v>2</v>
@@ -9056,7 +9059,7 @@
         <v>56</v>
       </c>
       <c r="H182" s="4" t="s">
-        <v>858</v>
+        <v>904</v>
       </c>
       <c r="I182" s="4"/>
       <c r="J182" s="4"/>
@@ -9166,7 +9169,7 @@
         <v>186</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="E187" s="4"/>
       <c r="F187" s="4"/>
@@ -9217,7 +9220,7 @@
         <v>27</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="H189" s="9"/>
       <c r="I189" s="9"/>
@@ -9268,7 +9271,7 @@
         <v>3</v>
       </c>
       <c r="H191" s="4" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="I191" s="4"/>
       <c r="J191" s="4"/>
@@ -9306,10 +9309,10 @@
         <v>192</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E193" s="9" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F193" s="4">
         <v>2</v>
@@ -9328,7 +9331,7 @@
         <v>193</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="E194" s="9"/>
       <c r="F194" s="4"/>
@@ -9346,7 +9349,7 @@
         <v>194</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E195" s="9" t="s">
         <v>814</v>
@@ -9354,13 +9357,13 @@
       <c r="F195" s="4"/>
       <c r="G195" s="4"/>
       <c r="H195" s="9" t="s">
-        <v>871</v>
+        <v>905</v>
       </c>
       <c r="I195" s="9">
         <v>1</v>
       </c>
       <c r="J195" s="4" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="K195" s="4"/>
       <c r="L195" s="4"/>
@@ -9372,13 +9375,13 @@
         <v>195</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E196" s="9" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F196" s="4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G196" s="4"/>
       <c r="H196" s="9"/>
@@ -9394,7 +9397,7 @@
         <v>196</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="E197" s="9"/>
       <c r="F197" s="4"/>
@@ -9412,7 +9415,7 @@
         <v>197</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E198" s="9" t="s">
         <v>19</v>
@@ -9436,13 +9439,13 @@
         <v>198</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E199" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F199" s="4" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="G199" s="4" t="s">
         <v>2</v>
@@ -9460,7 +9463,7 @@
         <v>199</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E200" s="9" t="s">
         <v>19</v>
@@ -9488,7 +9491,7 @@
         <v>200</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E201" s="9" t="s">
         <v>19</v>
@@ -9512,10 +9515,10 @@
         <v>201</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E202" s="9" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F202" s="4">
         <v>2</v>
@@ -9546,7 +9549,7 @@
         <v>60</v>
       </c>
       <c r="H203" s="9" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="I203" s="9"/>
       <c r="J203" s="4"/>
@@ -9572,7 +9575,7 @@
         <v>60</v>
       </c>
       <c r="H204" s="9" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="I204" s="4"/>
       <c r="J204" s="4"/>
@@ -9598,13 +9601,13 @@
         <v>7</v>
       </c>
       <c r="H205" s="9" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="I205" s="4" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="J205" s="4" t="s">
-        <v>902</v>
+        <v>907</v>
       </c>
       <c r="K205" s="4"/>
       <c r="L205" s="4"/>
@@ -9640,7 +9643,7 @@
         <v>206</v>
       </c>
       <c r="D207" s="5" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E207" s="9"/>
       <c r="F207" s="4"/>
@@ -9728,10 +9731,10 @@
         <v>210</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E211" s="9" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="F211" s="4" t="s">
         <v>633</v>
@@ -9740,7 +9743,7 @@
         <v>3</v>
       </c>
       <c r="H211" s="4" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="I211" s="4"/>
       <c r="J211" s="4"/>
@@ -9754,10 +9757,10 @@
         <v>211</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E212" s="9" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="F212" s="4" t="s">
         <v>215</v>
@@ -9778,7 +9781,7 @@
         <v>212</v>
       </c>
       <c r="D213" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E213" s="4" t="s">
         <v>640</v>
@@ -9802,10 +9805,10 @@
         <v>213</v>
       </c>
       <c r="D214" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E214" s="9" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="F214" s="4" t="s">
         <v>100</v>
@@ -9888,7 +9891,7 @@
         <v>56</v>
       </c>
       <c r="H217" s="9" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="I217" s="4"/>
       <c r="J217" s="4"/>
@@ -9928,7 +9931,7 @@
         <v>218</v>
       </c>
       <c r="D219" s="6" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="E219" s="9" t="s">
         <v>811</v>

--- a/NformTester/NformTester/keywordscripts/TST2801_AlarmUnderMaintenanceMode.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST2801_AlarmUnderMaintenanceMode.xlsx
@@ -1278,7 +1278,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8467" uniqueCount="909">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8467" uniqueCount="912">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3945,10 +3945,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$GXT_Trap$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">;Prerequisites:1.Devices should be added in Nform.2.User have the right of device configure. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4041,35 +4037,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>;The goal of this test is to verify the state of alarm triggered by device under mainenance mode.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMPdevice_0$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$GXT_0_NAME$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$GXT_Ip_Port$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Incident</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$Incident$</t>
+    <t>"{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}{down}</t>
+    <t>Running Range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_device_0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_GXT_0_NAME$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_GXT_Ip_Port$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Trap_GXT_Trap$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Trap_GXT_Trap$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Sys_Incident$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"C:/Nform/writefile_result.txt"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VerifyTxtfileValues</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4621,8 +4633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O220"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="B178" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J149" sqref="J149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4634,6 +4646,7 @@
     <col min="7" max="7" width="14.875" customWidth="1"/>
     <col min="8" max="8" width="14.75" customWidth="1"/>
     <col min="9" max="9" width="14.375" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -4779,7 +4792,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -4797,13 +4810,13 @@
         <v>831</v>
       </c>
       <c r="B6" s="8">
-        <v>41135</v>
+        <v>41449</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -4842,16 +4855,14 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
-        <v>823</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>901</v>
-      </c>
+        <v>903</v>
+      </c>
+      <c r="B8" s="7"/>
       <c r="C8" s="4">
         <v>7</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>632</v>
@@ -4864,10 +4875,10 @@
         <v>856</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>857</v>
@@ -4882,11 +4893,9 @@
     </row>
     <row r="9" spans="1:14" ht="15">
       <c r="A9" s="2" t="s">
-        <v>833</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>834</v>
-      </c>
+        <v>823</v>
+      </c>
+      <c r="B9" s="3"/>
       <c r="C9" s="4">
         <v>8</v>
       </c>
@@ -4905,8 +4914,12 @@
       <c r="N9" s="14"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
+      <c r="A10" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>834</v>
+      </c>
       <c r="C10" s="4">
         <v>9</v>
       </c>
@@ -4931,10 +4944,8 @@
       <c r="N10" s="14"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="2" t="s">
-        <v>835</v>
-      </c>
-      <c r="B11" s="13"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="4">
         <v>10</v>
       </c>
@@ -4960,7 +4971,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="4">
@@ -4988,7 +4999,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="4">
@@ -5018,7 +5029,7 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="4">
@@ -5046,7 +5057,7 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="4">
@@ -5072,14 +5083,14 @@
     </row>
     <row r="16" spans="1:14" ht="15">
       <c r="A16" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="4">
         <v>15</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -5093,15 +5104,15 @@
       <c r="N16" s="14"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="2"/>
-      <c r="B17" s="13" t="s">
-        <v>841</v>
-      </c>
+      <c r="A17" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="B17" s="13"/>
       <c r="C17" s="4">
         <v>16</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>19</v>
@@ -5123,13 +5134,13 @@
     <row r="18" spans="1:14">
       <c r="A18" s="2"/>
       <c r="B18" s="13" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C18" s="4">
         <v>17</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>19</v>
@@ -5149,17 +5160,15 @@
       <c r="N18" s="14"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="2" t="s">
-        <v>843</v>
-      </c>
+      <c r="A19" s="2"/>
       <c r="B19" s="13" t="s">
-        <v>834</v>
+        <v>842</v>
       </c>
       <c r="C19" s="4">
         <v>18</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>361</v>
@@ -5171,10 +5180,10 @@
         <v>7</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="J19" s="4" t="b">
         <v>1</v>
@@ -5186,9 +5195,11 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="2" t="s">
-        <v>844</v>
-      </c>
-      <c r="B20" s="13"/>
+        <v>843</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>834</v>
+      </c>
       <c r="C20" s="4">
         <v>19</v>
       </c>
@@ -5212,14 +5223,14 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="4">
         <v>20</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>361</v>
@@ -5247,7 +5258,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>365</v>
@@ -5259,7 +5270,7 @@
         <v>4</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
@@ -5269,11 +5280,15 @@
       <c r="N22" s="14"/>
     </row>
     <row r="23" spans="1:14">
+      <c r="A23" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="B23" s="13"/>
       <c r="C23" s="4">
         <v>22</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>365</v>
@@ -5285,7 +5300,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -5299,7 +5314,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>365</v>
@@ -5371,7 +5386,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>416</v>
@@ -5383,7 +5398,7 @@
         <v>4</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="4"/>
@@ -5397,7 +5412,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>416</v>
@@ -5409,7 +5424,7 @@
         <v>4</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="4"/>
@@ -5435,7 +5450,7 @@
         <v>4</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="4"/>
@@ -5473,7 +5488,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>416</v>
@@ -5485,7 +5500,7 @@
         <v>4</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -5547,7 +5562,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>416</v>
@@ -5583,7 +5598,7 @@
         <v>60</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="4"/>
@@ -5727,7 +5742,7 @@
         <v>56</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="4"/>
@@ -5780,7 +5795,7 @@
         <v>2</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -5805,7 +5820,7 @@
         <v>13</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
@@ -5831,7 +5846,7 @@
         <v>3</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
@@ -6133,13 +6148,13 @@
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
       <c r="H58" s="9" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="I58" s="9">
         <v>1</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>876</v>
+        <v>907</v>
       </c>
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
@@ -6173,7 +6188,7 @@
         <v>59</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E60" s="9"/>
       <c r="F60" s="4"/>
@@ -6325,7 +6340,7 @@
         <v>60</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="4"/>
@@ -6351,7 +6366,7 @@
         <v>60</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
@@ -6365,7 +6380,7 @@
         <v>67</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E68" s="9" t="s">
         <v>226</v>
@@ -6377,7 +6392,7 @@
         <v>60</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
@@ -6418,17 +6433,19 @@
         <v>861</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>886</v>
+        <v>911</v>
       </c>
       <c r="F70" s="4"/>
       <c r="G70" s="9"/>
       <c r="H70" s="4" t="s">
-        <v>888</v>
+        <v>910</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>904</v>
-      </c>
-      <c r="J70" s="4"/>
+        <v>905</v>
+      </c>
+      <c r="J70" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
       <c r="M70" s="4"/>
@@ -6517,7 +6534,7 @@
         <v>56</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
@@ -6815,13 +6832,13 @@
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
       <c r="H87" s="9" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="I87" s="9">
         <v>1</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>876</v>
+        <v>907</v>
       </c>
       <c r="K87" s="4"/>
       <c r="L87" s="4"/>
@@ -6855,7 +6872,7 @@
         <v>88</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
@@ -7007,7 +7024,7 @@
         <v>61</v>
       </c>
       <c r="H95" s="9" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="4"/>
@@ -7033,7 +7050,7 @@
         <v>61</v>
       </c>
       <c r="H96" s="9" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
@@ -7053,7 +7070,7 @@
         <v>226</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="G97" s="4" t="s">
         <v>7</v>
@@ -7065,7 +7082,7 @@
         <v>871</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="K97" s="4"/>
       <c r="L97" s="4"/>
@@ -7123,7 +7140,7 @@
         <v>99</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E100" s="9"/>
       <c r="F100" s="4"/>
@@ -7201,7 +7218,7 @@
         <v>56</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
@@ -7499,13 +7516,13 @@
       <c r="F116" s="4"/>
       <c r="G116" s="4"/>
       <c r="H116" s="9" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="I116" s="9">
         <v>1</v>
       </c>
       <c r="J116" s="4" t="s">
-        <v>876</v>
+        <v>907</v>
       </c>
       <c r="K116" s="4"/>
       <c r="L116" s="4"/>
@@ -7539,7 +7556,7 @@
         <v>117</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E118" s="9"/>
       <c r="F118" s="4"/>
@@ -7691,7 +7708,7 @@
         <v>60</v>
       </c>
       <c r="H124" s="9" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="4"/>
@@ -7717,7 +7734,7 @@
         <v>60</v>
       </c>
       <c r="H125" s="9" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="I125" s="4"/>
       <c r="J125" s="4"/>
@@ -7746,10 +7763,10 @@
         <v>870</v>
       </c>
       <c r="I126" s="4" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="J126" s="4" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="K126" s="4"/>
       <c r="L126" s="4"/>
@@ -7785,7 +7802,7 @@
         <v>127</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
@@ -7991,13 +8008,13 @@
       <c r="F137" s="4"/>
       <c r="G137" s="4"/>
       <c r="H137" s="9" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="I137" s="9">
         <v>1</v>
       </c>
       <c r="J137" s="4" t="s">
-        <v>876</v>
+        <v>907</v>
       </c>
       <c r="K137" s="4"/>
       <c r="L137" s="4"/>
@@ -8031,7 +8048,7 @@
         <v>138</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E139" s="9"/>
       <c r="F139" s="4"/>
@@ -8183,7 +8200,7 @@
         <v>60</v>
       </c>
       <c r="H145" s="9" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="I145" s="9"/>
       <c r="J145" s="4"/>
@@ -8209,7 +8226,7 @@
         <v>60</v>
       </c>
       <c r="H146" s="9" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="I146" s="4"/>
       <c r="J146" s="4"/>
@@ -8235,7 +8252,7 @@
         <v>60</v>
       </c>
       <c r="H147" s="9" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="I147" s="4"/>
       <c r="J147" s="4"/>
@@ -8276,17 +8293,19 @@
         <v>861</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F149" s="4"/>
       <c r="G149" s="9"/>
       <c r="H149" s="4" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="I149" s="4" t="s">
-        <v>904</v>
-      </c>
-      <c r="J149" s="4"/>
+        <v>905</v>
+      </c>
+      <c r="J149" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="K149" s="4"/>
       <c r="L149" s="4"/>
       <c r="M149" s="4"/>
@@ -8375,7 +8394,7 @@
         <v>56</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="I153" s="4"/>
       <c r="J153" s="4"/>
@@ -8673,13 +8692,13 @@
       <c r="F166" s="4"/>
       <c r="G166" s="4"/>
       <c r="H166" s="9" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="I166" s="9">
         <v>1</v>
       </c>
       <c r="J166" s="4" t="s">
-        <v>876</v>
+        <v>907</v>
       </c>
       <c r="K166" s="4"/>
       <c r="L166" s="4"/>
@@ -8713,7 +8732,7 @@
         <v>167</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E168" s="4"/>
       <c r="F168" s="4"/>
@@ -8865,7 +8884,7 @@
         <v>61</v>
       </c>
       <c r="H174" s="9" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="I174" s="9"/>
       <c r="J174" s="4"/>
@@ -8891,7 +8910,7 @@
         <v>61</v>
       </c>
       <c r="H175" s="9" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="I175" s="4"/>
       <c r="J175" s="4"/>
@@ -8923,7 +8942,7 @@
         <v>871</v>
       </c>
       <c r="J176" s="4" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="K176" s="4"/>
       <c r="L176" s="4"/>
@@ -8981,7 +9000,7 @@
         <v>178</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E179" s="9"/>
       <c r="F179" s="4"/>
@@ -9059,7 +9078,7 @@
         <v>56</v>
       </c>
       <c r="H182" s="4" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="I182" s="4"/>
       <c r="J182" s="4"/>
@@ -9357,13 +9376,13 @@
       <c r="F195" s="4"/>
       <c r="G195" s="4"/>
       <c r="H195" s="9" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="I195" s="9">
         <v>1</v>
       </c>
       <c r="J195" s="4" t="s">
-        <v>876</v>
+        <v>908</v>
       </c>
       <c r="K195" s="4"/>
       <c r="L195" s="4"/>
@@ -9397,7 +9416,7 @@
         <v>196</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E197" s="9"/>
       <c r="F197" s="4"/>
@@ -9549,7 +9568,7 @@
         <v>60</v>
       </c>
       <c r="H203" s="9" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="I203" s="9"/>
       <c r="J203" s="4"/>
@@ -9575,7 +9594,7 @@
         <v>60</v>
       </c>
       <c r="H204" s="9" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="I204" s="4"/>
       <c r="J204" s="4"/>
@@ -9604,10 +9623,10 @@
         <v>870</v>
       </c>
       <c r="I205" s="4" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="J205" s="4" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="K205" s="4"/>
       <c r="L205" s="4"/>
@@ -9891,7 +9910,7 @@
         <v>56</v>
       </c>
       <c r="H217" s="9" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="I217" s="4"/>
       <c r="J217" s="4"/>
@@ -9931,7 +9950,7 @@
         <v>218</v>
       </c>
       <c r="D219" s="6" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E219" s="9" t="s">
         <v>811</v>

--- a/NformTester/NformTester/keywordscripts/TST2801_AlarmUnderMaintenanceMode.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST2801_AlarmUnderMaintenanceMode.xlsx
@@ -4634,7 +4634,7 @@
   <dimension ref="A1:O220"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B178" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J149" sqref="J149"/>
+      <selection activeCell="I191" sqref="I191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/NformTester/NformTester/keywordscripts/TST2801_AlarmUnderMaintenanceMode.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST2801_AlarmUnderMaintenanceMode.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="15" windowWidth="15480" windowHeight="11640"/>
@@ -1278,7 +1278,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8467" uniqueCount="912">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8469" uniqueCount="913">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -4053,10 +4053,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_device_0$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>$SNMP_GXT_0_NAME$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4082,6 +4078,14 @@
   </si>
   <si>
     <t>VerifyTxtfileValues</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_SingleAuto_0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_SinAuto_0$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4631,10 +4635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O220"/>
+  <dimension ref="A1:O221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B178" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I191" sqref="I191"/>
+    <sheetView tabSelected="1" topLeftCell="B175" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H107" sqref="H107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4834,7 +4838,7 @@
         <v>832</v>
       </c>
       <c r="B7" s="3">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C7" s="4">
         <v>6</v>
@@ -4875,10 +4879,10 @@
         <v>856</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>904</v>
+        <v>911</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>905</v>
+        <v>912</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>857</v>
@@ -5500,7 +5504,7 @@
         <v>4</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>905</v>
+        <v>912</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -5756,17 +5760,15 @@
         <v>41</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>811</v>
+      </c>
+      <c r="F42" s="4">
+        <v>5</v>
+      </c>
+      <c r="G42" s="4"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
       <c r="J42" s="4"/>
@@ -5783,20 +5785,16 @@
         <v>847</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>446</v>
+        <v>361</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>447</v>
+        <v>363</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H43" s="4">
-        <v>2</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>905</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
@@ -5814,15 +5812,17 @@
         <v>446</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>880</v>
-      </c>
-      <c r="I44" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="H44" s="4">
+        <v>2</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>912</v>
+      </c>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
@@ -5840,13 +5840,13 @@
         <v>446</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>113</v>
+        <v>448</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>902</v>
+        <v>13</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>880</v>
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
@@ -5869,14 +5869,12 @@
         <v>113</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H46" s="9">
-        <v>28</v>
-      </c>
-      <c r="I46" s="4">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
@@ -5894,13 +5892,17 @@
         <v>446</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>449</v>
+        <v>113</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H47" s="9"/>
-      <c r="I47" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="H47" s="9">
+        <v>28</v>
+      </c>
+      <c r="I47" s="4">
+        <v>0</v>
+      </c>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
@@ -5918,7 +5920,7 @@
         <v>446</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>100</v>
+        <v>449</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>2</v>
@@ -5939,7 +5941,7 @@
         <v>847</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>361</v>
+        <v>446</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>100</v>
@@ -5955,17 +5957,23 @@
       <c r="M49" s="4"/>
       <c r="N49" s="14"/>
     </row>
-    <row r="50" spans="3:14" ht="15">
+    <row r="50" spans="3:14">
       <c r="C50" s="4">
         <v>49</v>
       </c>
-      <c r="D50" s="5" t="s">
-        <v>872</v>
-      </c>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
+      <c r="D50" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H50" s="9"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
@@ -5973,22 +5981,16 @@
       <c r="M50" s="4"/>
       <c r="N50" s="14"/>
     </row>
-    <row r="51" spans="3:14">
+    <row r="51" spans="3:14" ht="15">
       <c r="C51" s="4">
         <v>50</v>
       </c>
-      <c r="D51" s="6" t="s">
-        <v>847</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D51" s="5" t="s">
+        <v>872</v>
+      </c>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
@@ -6008,13 +6010,13 @@
         <v>19</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>873</v>
-      </c>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
@@ -6032,10 +6034,10 @@
         <v>19</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>114</v>
+        <v>27</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>2</v>
+        <v>873</v>
       </c>
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
@@ -6059,12 +6061,10 @@
         <v>114</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>860</v>
-      </c>
-      <c r="I54" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
@@ -6082,12 +6082,14 @@
         <v>19</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H55" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>860</v>
+      </c>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
@@ -6095,20 +6097,22 @@
       <c r="M55" s="4"/>
       <c r="N55" s="14"/>
     </row>
-    <row r="56" spans="3:14" ht="14.25" customHeight="1">
+    <row r="56" spans="3:14">
       <c r="C56" s="4">
         <v>55</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>861</v>
+        <v>847</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>862</v>
-      </c>
-      <c r="F56" s="4">
-        <v>2</v>
-      </c>
-      <c r="G56" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H56" s="9"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
@@ -6121,41 +6125,37 @@
       <c r="C57" s="4">
         <v>56</v>
       </c>
-      <c r="D57" s="5" t="s">
-        <v>863</v>
-      </c>
-      <c r="E57" s="9"/>
-      <c r="F57" s="4"/>
+      <c r="D57" s="6" t="s">
+        <v>861</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>862</v>
+      </c>
+      <c r="F57" s="4">
+        <v>2</v>
+      </c>
       <c r="G57" s="4"/>
       <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
       <c r="N57" s="14"/>
     </row>
-    <row r="58" spans="3:14">
+    <row r="58" spans="3:14" ht="14.25" customHeight="1">
       <c r="C58" s="4">
         <v>57</v>
       </c>
-      <c r="D58" s="6" t="s">
-        <v>861</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>814</v>
-      </c>
+      <c r="D58" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="E58" s="9"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
-      <c r="H58" s="9" t="s">
-        <v>906</v>
-      </c>
-      <c r="I58" s="9">
-        <v>1</v>
-      </c>
-      <c r="J58" s="4" t="s">
-        <v>907</v>
-      </c>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
       <c r="M58" s="4"/>
@@ -6169,55 +6169,57 @@
         <v>861</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>862</v>
-      </c>
-      <c r="F59" s="4">
-        <v>10</v>
-      </c>
+        <v>814</v>
+      </c>
+      <c r="F59" s="4"/>
       <c r="G59" s="4"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="4"/>
+      <c r="H59" s="9" t="s">
+        <v>905</v>
+      </c>
+      <c r="I59" s="9">
+        <v>1</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>906</v>
+      </c>
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
       <c r="M59" s="4"/>
       <c r="N59" s="14"/>
     </row>
-    <row r="60" spans="3:14" ht="15">
+    <row r="60" spans="3:14">
       <c r="C60" s="4">
         <v>59</v>
       </c>
-      <c r="D60" s="5" t="s">
-        <v>881</v>
-      </c>
-      <c r="E60" s="9"/>
-      <c r="F60" s="4"/>
+      <c r="D60" s="6" t="s">
+        <v>861</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>862</v>
+      </c>
+      <c r="F60" s="4">
+        <v>10</v>
+      </c>
       <c r="G60" s="4"/>
       <c r="H60" s="9"/>
-      <c r="I60" s="4"/>
+      <c r="I60" s="9"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
       <c r="M60" s="4"/>
       <c r="N60" s="14"/>
     </row>
-    <row r="61" spans="3:14">
+    <row r="61" spans="3:14" ht="15">
       <c r="C61" s="4">
         <v>60</v>
       </c>
-      <c r="D61" s="6" t="s">
-        <v>865</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H61" s="4"/>
+      <c r="D61" s="5" t="s">
+        <v>881</v>
+      </c>
+      <c r="E61" s="9"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="9"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
@@ -6236,7 +6238,7 @@
         <v>19</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>869</v>
+        <v>26</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>2</v>
@@ -6260,17 +6262,13 @@
         <v>19</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>114</v>
+        <v>869</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H63" s="4">
-        <v>1</v>
-      </c>
-      <c r="I63" s="4">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
@@ -6288,13 +6286,17 @@
         <v>19</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="H64" s="4">
+        <v>1</v>
+      </c>
+      <c r="I64" s="4">
+        <v>1</v>
+      </c>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
@@ -6306,17 +6308,19 @@
         <v>64</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>862</v>
-      </c>
-      <c r="F65" s="4">
-        <v>2</v>
-      </c>
-      <c r="G65" s="4"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
@@ -6328,20 +6332,16 @@
         <v>65</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>847</v>
+        <v>861</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H66" s="9" t="s">
-        <v>892</v>
-      </c>
+        <v>862</v>
+      </c>
+      <c r="F66" s="4">
+        <v>2</v>
+      </c>
+      <c r="G66" s="4"/>
+      <c r="H66" s="9"/>
       <c r="I66" s="9"/>
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
@@ -6366,9 +6366,9 @@
         <v>60</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>882</v>
-      </c>
-      <c r="I67" s="4"/>
+        <v>892</v>
+      </c>
+      <c r="I67" s="9"/>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
@@ -6380,7 +6380,7 @@
         <v>67</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>883</v>
+        <v>847</v>
       </c>
       <c r="E68" s="9" t="s">
         <v>226</v>
@@ -6392,7 +6392,7 @@
         <v>60</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
@@ -6406,18 +6406,20 @@
         <v>68</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>847</v>
+        <v>883</v>
       </c>
       <c r="E69" s="9" t="s">
         <v>226</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>100</v>
+        <v>231</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H69" s="9"/>
+        <v>60</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>884</v>
+      </c>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
@@ -6430,61 +6432,61 @@
         <v>69</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>861</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>911</v>
-      </c>
-      <c r="F70" s="4"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="4" t="s">
-        <v>910</v>
-      </c>
-      <c r="I70" s="4" t="s">
-        <v>905</v>
-      </c>
-      <c r="J70" s="4" t="b">
-        <v>1</v>
-      </c>
+        <v>847</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H70" s="9"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
       <c r="M70" s="4"/>
-      <c r="N70" s="17"/>
-    </row>
-    <row r="71" spans="3:14" ht="15">
+      <c r="N70" s="14"/>
+    </row>
+    <row r="71" spans="3:14">
       <c r="C71" s="4">
         <v>70</v>
       </c>
-      <c r="D71" s="5" t="s">
-        <v>867</v>
-      </c>
-      <c r="E71" s="9"/>
+      <c r="D71" s="6" t="s">
+        <v>861</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>910</v>
+      </c>
       <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="4" t="s">
+        <v>909</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>912</v>
+      </c>
+      <c r="J71" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
       <c r="M71" s="4"/>
-      <c r="N71" s="14"/>
-    </row>
-    <row r="72" spans="3:14">
+      <c r="N71" s="17"/>
+    </row>
+    <row r="72" spans="3:14" ht="15">
       <c r="C72" s="4">
         <v>71</v>
       </c>
-      <c r="D72" s="6" t="s">
-        <v>847</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D72" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="E72" s="9"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
       <c r="H72" s="9"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
@@ -6504,7 +6506,7 @@
         <v>19</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>868</v>
+        <v>22</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>2</v>
@@ -6525,17 +6527,15 @@
         <v>847</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>632</v>
+        <v>19</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>633</v>
+        <v>868</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H74" s="4" t="s">
-        <v>905</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H74" s="9"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
@@ -6554,12 +6554,14 @@
         <v>632</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H75" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>912</v>
+      </c>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
@@ -6575,10 +6577,10 @@
         <v>847</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>2</v>
@@ -6602,7 +6604,7 @@
         <v>641</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>17</v>
+        <v>643</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>2</v>
@@ -6623,10 +6625,10 @@
         <v>847</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>2</v>
@@ -6639,17 +6641,23 @@
       <c r="M78" s="4"/>
       <c r="N78" s="14"/>
     </row>
-    <row r="79" spans="3:14" ht="15">
+    <row r="79" spans="3:14">
       <c r="C79" s="4">
         <v>78</v>
       </c>
-      <c r="D79" s="5" t="s">
-        <v>872</v>
-      </c>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
+      <c r="D79" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H79" s="9"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
@@ -6657,22 +6665,16 @@
       <c r="M79" s="4"/>
       <c r="N79" s="14"/>
     </row>
-    <row r="80" spans="3:14">
+    <row r="80" spans="3:14" ht="15">
       <c r="C80" s="4">
         <v>79</v>
       </c>
-      <c r="D80" s="6" t="s">
-        <v>847</v>
-      </c>
-      <c r="E80" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D80" s="5" t="s">
+        <v>872</v>
+      </c>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
@@ -6692,13 +6694,13 @@
         <v>19</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>873</v>
-      </c>
-      <c r="H81" s="9"/>
-      <c r="I81" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
       <c r="L81" s="4"/>
@@ -6716,10 +6718,10 @@
         <v>19</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>114</v>
+        <v>27</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>2</v>
+        <v>873</v>
       </c>
       <c r="H82" s="9"/>
       <c r="I82" s="9"/>
@@ -6743,12 +6745,10 @@
         <v>114</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="4" t="s">
-        <v>860</v>
-      </c>
-      <c r="I83" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
       <c r="L83" s="4"/>
@@ -6766,12 +6766,14 @@
         <v>19</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H84" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>860</v>
+      </c>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
@@ -6784,15 +6786,17 @@
         <v>84</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>874</v>
+        <v>847</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>875</v>
-      </c>
-      <c r="F85" s="4">
-        <v>2</v>
-      </c>
-      <c r="G85" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H85" s="9"/>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
@@ -6801,45 +6805,41 @@
       <c r="M85" s="4"/>
       <c r="N85" s="14"/>
     </row>
-    <row r="86" spans="3:14" ht="15">
+    <row r="86" spans="3:14">
       <c r="C86" s="4">
         <v>85</v>
       </c>
-      <c r="D86" s="5" t="s">
-        <v>863</v>
-      </c>
-      <c r="E86" s="9"/>
-      <c r="F86" s="4"/>
+      <c r="D86" s="6" t="s">
+        <v>874</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>875</v>
+      </c>
+      <c r="F86" s="4">
+        <v>2</v>
+      </c>
       <c r="G86" s="4"/>
       <c r="H86" s="9"/>
-      <c r="I86" s="9"/>
-      <c r="J86" s="9"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
       <c r="K86" s="4"/>
       <c r="L86" s="4"/>
       <c r="M86" s="4"/>
       <c r="N86" s="14"/>
     </row>
-    <row r="87" spans="3:14">
+    <row r="87" spans="3:14" ht="15">
       <c r="C87" s="4">
         <v>86</v>
       </c>
-      <c r="D87" s="6" t="s">
-        <v>861</v>
-      </c>
-      <c r="E87" s="9" t="s">
-        <v>814</v>
-      </c>
+      <c r="D87" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="E87" s="9"/>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
-      <c r="H87" s="9" t="s">
-        <v>906</v>
-      </c>
-      <c r="I87" s="9">
-        <v>1</v>
-      </c>
-      <c r="J87" s="4" t="s">
-        <v>907</v>
-      </c>
+      <c r="H87" s="9"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
       <c r="K87" s="4"/>
       <c r="L87" s="4"/>
       <c r="M87" s="4"/>
@@ -6853,54 +6853,56 @@
         <v>861</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>862</v>
-      </c>
-      <c r="F88" s="4">
-        <v>10</v>
-      </c>
+        <v>814</v>
+      </c>
+      <c r="F88" s="4"/>
       <c r="G88" s="4"/>
-      <c r="H88" s="9"/>
-      <c r="I88" s="9"/>
-      <c r="J88" s="4"/>
+      <c r="H88" s="9" t="s">
+        <v>905</v>
+      </c>
+      <c r="I88" s="9">
+        <v>1</v>
+      </c>
+      <c r="J88" s="4" t="s">
+        <v>906</v>
+      </c>
       <c r="K88" s="4"/>
       <c r="L88" s="4"/>
       <c r="M88" s="4"/>
       <c r="N88" s="14"/>
     </row>
-    <row r="89" spans="3:14" ht="15">
+    <row r="89" spans="3:14">
       <c r="C89" s="4">
         <v>88</v>
       </c>
-      <c r="D89" s="5" t="s">
-        <v>894</v>
-      </c>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
+      <c r="D89" s="6" t="s">
+        <v>861</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>862</v>
+      </c>
+      <c r="F89" s="4">
+        <v>10</v>
+      </c>
       <c r="G89" s="4"/>
-      <c r="H89" s="4"/>
-      <c r="I89" s="4"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9"/>
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
       <c r="L89" s="4"/>
       <c r="M89" s="4"/>
       <c r="N89" s="14"/>
     </row>
-    <row r="90" spans="3:14">
+    <row r="90" spans="3:14" ht="15">
       <c r="C90" s="4">
         <v>89</v>
       </c>
-      <c r="D90" s="6" t="s">
-        <v>865</v>
-      </c>
-      <c r="E90" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D90" s="5" t="s">
+        <v>894</v>
+      </c>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
@@ -6920,7 +6922,7 @@
         <v>19</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>869</v>
+        <v>26</v>
       </c>
       <c r="G91" s="4" t="s">
         <v>2</v>
@@ -6944,17 +6946,13 @@
         <v>19</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>114</v>
+        <v>869</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H92" s="4">
-        <v>1</v>
-      </c>
-      <c r="I92" s="4">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
       <c r="L92" s="4"/>
@@ -6972,13 +6970,17 @@
         <v>19</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H93" s="4"/>
-      <c r="I93" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="H93" s="4">
+        <v>1</v>
+      </c>
+      <c r="I93" s="4">
+        <v>1</v>
+      </c>
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
       <c r="L93" s="4"/>
@@ -6990,17 +6992,19 @@
         <v>93</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>862</v>
-      </c>
-      <c r="F94" s="4">
-        <v>2</v>
-      </c>
-      <c r="G94" s="4"/>
-      <c r="H94" s="9"/>
-      <c r="I94" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
       <c r="L94" s="4"/>
@@ -7012,20 +7016,16 @@
         <v>94</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>847</v>
+        <v>861</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H95" s="9" t="s">
-        <v>878</v>
-      </c>
+        <v>862</v>
+      </c>
+      <c r="F95" s="4">
+        <v>2</v>
+      </c>
+      <c r="G95" s="4"/>
+      <c r="H95" s="9"/>
       <c r="I95" s="9"/>
       <c r="J95" s="4"/>
       <c r="K95" s="4"/>
@@ -7050,9 +7050,9 @@
         <v>61</v>
       </c>
       <c r="H96" s="9" t="s">
-        <v>882</v>
-      </c>
-      <c r="I96" s="4"/>
+        <v>878</v>
+      </c>
+      <c r="I96" s="9"/>
       <c r="J96" s="4"/>
       <c r="K96" s="4"/>
       <c r="L96" s="4"/>
@@ -7070,20 +7070,16 @@
         <v>226</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>901</v>
+        <v>231</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="H97" s="9" t="s">
-        <v>870</v>
-      </c>
-      <c r="I97" s="9" t="s">
-        <v>871</v>
-      </c>
-      <c r="J97" s="4" t="s">
-        <v>909</v>
-      </c>
+        <v>882</v>
+      </c>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
       <c r="K97" s="4"/>
       <c r="L97" s="4"/>
       <c r="M97" s="4"/>
@@ -7100,14 +7096,20 @@
         <v>226</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>100</v>
+        <v>901</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H98" s="4"/>
-      <c r="I98" s="4"/>
-      <c r="J98" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H98" s="9" t="s">
+        <v>870</v>
+      </c>
+      <c r="I98" s="9" t="s">
+        <v>871</v>
+      </c>
+      <c r="J98" s="4" t="s">
+        <v>908</v>
+      </c>
       <c r="K98" s="4"/>
       <c r="L98" s="4"/>
       <c r="M98" s="4"/>
@@ -7118,58 +7120,58 @@
         <v>98</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>861</v>
+        <v>847</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>862</v>
-      </c>
-      <c r="F99" s="4">
-        <v>1</v>
-      </c>
-      <c r="G99" s="4"/>
-      <c r="H99" s="9"/>
-      <c r="I99" s="9"/>
+        <v>226</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
       <c r="J99" s="4"/>
       <c r="K99" s="4"/>
       <c r="L99" s="4"/>
       <c r="M99" s="4"/>
       <c r="N99" s="14"/>
     </row>
-    <row r="100" spans="3:14" ht="15">
+    <row r="100" spans="3:14">
       <c r="C100" s="4">
         <v>99</v>
       </c>
-      <c r="D100" s="5" t="s">
-        <v>895</v>
-      </c>
-      <c r="E100" s="9"/>
-      <c r="F100" s="4"/>
+      <c r="D100" s="6" t="s">
+        <v>861</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>862</v>
+      </c>
+      <c r="F100" s="4">
+        <v>1</v>
+      </c>
       <c r="G100" s="4"/>
-      <c r="H100" s="15"/>
-      <c r="I100" s="4"/>
+      <c r="H100" s="9"/>
+      <c r="I100" s="9"/>
       <c r="J100" s="4"/>
       <c r="K100" s="4"/>
       <c r="L100" s="4"/>
       <c r="M100" s="4"/>
       <c r="N100" s="14"/>
     </row>
-    <row r="101" spans="3:14">
+    <row r="101" spans="3:14" ht="15">
       <c r="C101" s="4">
         <v>100</v>
       </c>
-      <c r="D101" s="6" t="s">
-        <v>847</v>
-      </c>
-      <c r="E101" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F101" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G101" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H101" s="9"/>
+      <c r="D101" s="5" t="s">
+        <v>895</v>
+      </c>
+      <c r="E101" s="9"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="15"/>
       <c r="I101" s="4"/>
       <c r="J101" s="4"/>
       <c r="K101" s="4"/>
@@ -7188,7 +7190,7 @@
         <v>19</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>868</v>
+        <v>22</v>
       </c>
       <c r="G102" s="4" t="s">
         <v>2</v>
@@ -7209,17 +7211,15 @@
         <v>847</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>632</v>
+        <v>19</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>633</v>
+        <v>868</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H103" s="4" t="s">
-        <v>905</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H103" s="9"/>
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
       <c r="K103" s="4"/>
@@ -7238,12 +7238,14 @@
         <v>632</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H104" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>912</v>
+      </c>
       <c r="I104" s="4"/>
       <c r="J104" s="4"/>
       <c r="K104" s="4"/>
@@ -7259,10 +7261,10 @@
         <v>847</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="G105" s="4" t="s">
         <v>2</v>
@@ -7286,7 +7288,7 @@
         <v>641</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>17</v>
+        <v>642</v>
       </c>
       <c r="G106" s="4" t="s">
         <v>2</v>
@@ -7307,15 +7309,15 @@
         <v>847</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="G107" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H107" s="9"/>
+      <c r="H107" s="4"/>
       <c r="I107" s="4"/>
       <c r="J107" s="4"/>
       <c r="K107" s="4"/>
@@ -7323,17 +7325,23 @@
       <c r="M107" s="4"/>
       <c r="N107" s="14"/>
     </row>
-    <row r="108" spans="3:14" ht="15">
+    <row r="108" spans="3:14">
       <c r="C108" s="4">
         <v>107</v>
       </c>
-      <c r="D108" s="5" t="s">
-        <v>872</v>
-      </c>
-      <c r="E108" s="4"/>
-      <c r="F108" s="4"/>
-      <c r="G108" s="4"/>
-      <c r="H108" s="4"/>
+      <c r="D108" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H108" s="9"/>
       <c r="I108" s="4"/>
       <c r="J108" s="4"/>
       <c r="K108" s="4"/>
@@ -7341,22 +7349,16 @@
       <c r="M108" s="4"/>
       <c r="N108" s="14"/>
     </row>
-    <row r="109" spans="3:14">
+    <row r="109" spans="3:14" ht="15">
       <c r="C109" s="4">
         <v>108</v>
       </c>
-      <c r="D109" s="6" t="s">
-        <v>847</v>
-      </c>
-      <c r="E109" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F109" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G109" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D109" s="5" t="s">
+        <v>872</v>
+      </c>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
       <c r="H109" s="4"/>
       <c r="I109" s="4"/>
       <c r="J109" s="4"/>
@@ -7376,13 +7378,13 @@
         <v>19</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>873</v>
-      </c>
-      <c r="H110" s="9"/>
-      <c r="I110" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="H110" s="4"/>
+      <c r="I110" s="4"/>
       <c r="J110" s="4"/>
       <c r="K110" s="4"/>
       <c r="L110" s="4"/>
@@ -7400,10 +7402,10 @@
         <v>19</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>114</v>
+        <v>27</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>2</v>
+        <v>873</v>
       </c>
       <c r="H111" s="9"/>
       <c r="I111" s="9"/>
@@ -7427,12 +7429,10 @@
         <v>114</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H112" s="4" t="s">
-        <v>860</v>
-      </c>
-      <c r="I112" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="H112" s="9"/>
+      <c r="I112" s="9"/>
       <c r="J112" s="4"/>
       <c r="K112" s="4"/>
       <c r="L112" s="4"/>
@@ -7450,12 +7450,14 @@
         <v>19</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H113" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>860</v>
+      </c>
       <c r="I113" s="4"/>
       <c r="J113" s="4"/>
       <c r="K113" s="4"/>
@@ -7468,15 +7470,17 @@
         <v>113</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>874</v>
+        <v>847</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>875</v>
-      </c>
-      <c r="F114" s="4">
-        <v>2</v>
-      </c>
-      <c r="G114" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H114" s="9"/>
       <c r="I114" s="4"/>
       <c r="J114" s="4"/>
@@ -7485,45 +7489,41 @@
       <c r="M114" s="4"/>
       <c r="N114" s="14"/>
     </row>
-    <row r="115" spans="3:14" ht="15">
+    <row r="115" spans="3:14">
       <c r="C115" s="4">
         <v>114</v>
       </c>
-      <c r="D115" s="5" t="s">
-        <v>863</v>
-      </c>
-      <c r="E115" s="9"/>
-      <c r="F115" s="4"/>
+      <c r="D115" s="6" t="s">
+        <v>874</v>
+      </c>
+      <c r="E115" s="9" t="s">
+        <v>875</v>
+      </c>
+      <c r="F115" s="4">
+        <v>2</v>
+      </c>
       <c r="G115" s="4"/>
       <c r="H115" s="9"/>
-      <c r="I115" s="9"/>
-      <c r="J115" s="9"/>
+      <c r="I115" s="4"/>
+      <c r="J115" s="4"/>
       <c r="K115" s="4"/>
       <c r="L115" s="4"/>
       <c r="M115" s="4"/>
       <c r="N115" s="14"/>
     </row>
-    <row r="116" spans="3:14">
+    <row r="116" spans="3:14" ht="15">
       <c r="C116" s="4">
         <v>115</v>
       </c>
-      <c r="D116" s="6" t="s">
-        <v>861</v>
-      </c>
-      <c r="E116" s="9" t="s">
-        <v>814</v>
-      </c>
+      <c r="D116" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="E116" s="9"/>
       <c r="F116" s="4"/>
       <c r="G116" s="4"/>
-      <c r="H116" s="9" t="s">
-        <v>906</v>
-      </c>
-      <c r="I116" s="9">
-        <v>1</v>
-      </c>
-      <c r="J116" s="4" t="s">
-        <v>907</v>
-      </c>
+      <c r="H116" s="9"/>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
       <c r="K116" s="4"/>
       <c r="L116" s="4"/>
       <c r="M116" s="4"/>
@@ -7537,54 +7537,56 @@
         <v>861</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>862</v>
-      </c>
-      <c r="F117" s="4">
-        <v>10</v>
-      </c>
+        <v>814</v>
+      </c>
+      <c r="F117" s="4"/>
       <c r="G117" s="4"/>
-      <c r="H117" s="9"/>
-      <c r="I117" s="9"/>
-      <c r="J117" s="4"/>
+      <c r="H117" s="9" t="s">
+        <v>905</v>
+      </c>
+      <c r="I117" s="9">
+        <v>1</v>
+      </c>
+      <c r="J117" s="4" t="s">
+        <v>906</v>
+      </c>
       <c r="K117" s="4"/>
       <c r="L117" s="4"/>
       <c r="M117" s="4"/>
       <c r="N117" s="14"/>
     </row>
-    <row r="118" spans="3:14" ht="15">
+    <row r="118" spans="3:14">
       <c r="C118" s="4">
         <v>117</v>
       </c>
-      <c r="D118" s="5" t="s">
-        <v>896</v>
-      </c>
-      <c r="E118" s="9"/>
-      <c r="F118" s="4"/>
+      <c r="D118" s="6" t="s">
+        <v>861</v>
+      </c>
+      <c r="E118" s="9" t="s">
+        <v>862</v>
+      </c>
+      <c r="F118" s="4">
+        <v>10</v>
+      </c>
       <c r="G118" s="4"/>
-      <c r="H118" s="4"/>
-      <c r="I118" s="4"/>
+      <c r="H118" s="9"/>
+      <c r="I118" s="9"/>
       <c r="J118" s="4"/>
       <c r="K118" s="4"/>
       <c r="L118" s="4"/>
       <c r="M118" s="4"/>
       <c r="N118" s="14"/>
     </row>
-    <row r="119" spans="3:14">
+    <row r="119" spans="3:14" ht="15">
       <c r="C119" s="4">
         <v>118</v>
       </c>
-      <c r="D119" s="6" t="s">
-        <v>865</v>
-      </c>
-      <c r="E119" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F119" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G119" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D119" s="5" t="s">
+        <v>896</v>
+      </c>
+      <c r="E119" s="9"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
       <c r="H119" s="4"/>
       <c r="I119" s="4"/>
       <c r="J119" s="4"/>
@@ -7604,7 +7606,7 @@
         <v>19</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>869</v>
+        <v>26</v>
       </c>
       <c r="G120" s="4" t="s">
         <v>2</v>
@@ -7628,17 +7630,13 @@
         <v>19</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>114</v>
+        <v>869</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H121" s="4">
-        <v>1</v>
-      </c>
-      <c r="I121" s="4">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H121" s="4"/>
+      <c r="I121" s="4"/>
       <c r="J121" s="4"/>
       <c r="K121" s="4"/>
       <c r="L121" s="4"/>
@@ -7656,13 +7654,17 @@
         <v>19</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H122" s="4"/>
-      <c r="I122" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="H122" s="4">
+        <v>1</v>
+      </c>
+      <c r="I122" s="4">
+        <v>1</v>
+      </c>
       <c r="J122" s="4"/>
       <c r="K122" s="4"/>
       <c r="L122" s="4"/>
@@ -7674,17 +7676,19 @@
         <v>122</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>862</v>
-      </c>
-      <c r="F123" s="4">
-        <v>2</v>
-      </c>
-      <c r="G123" s="4"/>
-      <c r="H123" s="9"/>
-      <c r="I123" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H123" s="4"/>
+      <c r="I123" s="4"/>
       <c r="J123" s="4"/>
       <c r="K123" s="4"/>
       <c r="L123" s="4"/>
@@ -7696,20 +7700,16 @@
         <v>123</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>847</v>
+        <v>861</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="F124" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="G124" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H124" s="9" t="s">
-        <v>878</v>
-      </c>
+        <v>862</v>
+      </c>
+      <c r="F124" s="4">
+        <v>2</v>
+      </c>
+      <c r="G124" s="4"/>
+      <c r="H124" s="9"/>
       <c r="I124" s="9"/>
       <c r="J124" s="4"/>
       <c r="K124" s="4"/>
@@ -7734,9 +7734,9 @@
         <v>60</v>
       </c>
       <c r="H125" s="9" t="s">
-        <v>882</v>
-      </c>
-      <c r="I125" s="4"/>
+        <v>878</v>
+      </c>
+      <c r="I125" s="9"/>
       <c r="J125" s="4"/>
       <c r="K125" s="4"/>
       <c r="L125" s="4"/>
@@ -7754,20 +7754,16 @@
         <v>226</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="H126" s="9" t="s">
-        <v>870</v>
-      </c>
-      <c r="I126" s="4" t="s">
-        <v>897</v>
-      </c>
-      <c r="J126" s="4" t="s">
-        <v>909</v>
-      </c>
+        <v>882</v>
+      </c>
+      <c r="I126" s="4"/>
+      <c r="J126" s="4"/>
       <c r="K126" s="4"/>
       <c r="L126" s="4"/>
       <c r="M126" s="4"/>
@@ -7784,30 +7780,42 @@
         <v>226</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>100</v>
+        <v>235</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H127" s="9"/>
-      <c r="I127" s="4"/>
-      <c r="J127" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H127" s="9" t="s">
+        <v>870</v>
+      </c>
+      <c r="I127" s="4" t="s">
+        <v>897</v>
+      </c>
+      <c r="J127" s="4" t="s">
+        <v>908</v>
+      </c>
       <c r="K127" s="4"/>
       <c r="L127" s="4"/>
       <c r="M127" s="4"/>
       <c r="N127" s="14"/>
     </row>
-    <row r="128" spans="3:14" ht="15">
+    <row r="128" spans="3:14">
       <c r="C128" s="4">
         <v>127</v>
       </c>
-      <c r="D128" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="E128" s="4"/>
-      <c r="F128" s="4"/>
-      <c r="G128" s="4"/>
-      <c r="H128" s="4"/>
+      <c r="D128" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="E128" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G128" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H128" s="9"/>
       <c r="I128" s="4"/>
       <c r="J128" s="4"/>
       <c r="K128" s="4"/>
@@ -7820,7 +7828,7 @@
         <v>128</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>872</v>
+        <v>898</v>
       </c>
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
@@ -7833,22 +7841,16 @@
       <c r="M129" s="4"/>
       <c r="N129" s="14"/>
     </row>
-    <row r="130" spans="3:14">
+    <row r="130" spans="3:14" ht="15">
       <c r="C130" s="4">
         <v>129</v>
       </c>
-      <c r="D130" s="6" t="s">
-        <v>847</v>
-      </c>
-      <c r="E130" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F130" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G130" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D130" s="5" t="s">
+        <v>872</v>
+      </c>
+      <c r="E130" s="4"/>
+      <c r="F130" s="4"/>
+      <c r="G130" s="4"/>
       <c r="H130" s="4"/>
       <c r="I130" s="4"/>
       <c r="J130" s="4"/>
@@ -7868,13 +7870,13 @@
         <v>19</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>873</v>
-      </c>
-      <c r="H131" s="9"/>
-      <c r="I131" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="H131" s="4"/>
+      <c r="I131" s="4"/>
       <c r="J131" s="4"/>
       <c r="K131" s="4"/>
       <c r="L131" s="4"/>
@@ -7892,10 +7894,10 @@
         <v>19</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>114</v>
+        <v>27</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>2</v>
+        <v>873</v>
       </c>
       <c r="H132" s="9"/>
       <c r="I132" s="9"/>
@@ -7919,12 +7921,10 @@
         <v>114</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H133" s="4" t="s">
-        <v>860</v>
-      </c>
-      <c r="I133" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="H133" s="9"/>
+      <c r="I133" s="9"/>
       <c r="J133" s="4"/>
       <c r="K133" s="4"/>
       <c r="L133" s="4"/>
@@ -7942,12 +7942,14 @@
         <v>19</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H134" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="H134" s="4" t="s">
+        <v>860</v>
+      </c>
       <c r="I134" s="4"/>
       <c r="J134" s="4"/>
       <c r="K134" s="4"/>
@@ -7955,20 +7957,22 @@
       <c r="M134" s="4"/>
       <c r="N134" s="14"/>
     </row>
-    <row r="135" spans="3:14" ht="14.25" customHeight="1">
+    <row r="135" spans="3:14">
       <c r="C135" s="4">
         <v>134</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>861</v>
+        <v>847</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>862</v>
-      </c>
-      <c r="F135" s="4">
-        <v>2</v>
-      </c>
-      <c r="G135" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H135" s="9"/>
       <c r="I135" s="4"/>
       <c r="J135" s="4"/>
@@ -7981,41 +7985,37 @@
       <c r="C136" s="4">
         <v>135</v>
       </c>
-      <c r="D136" s="5" t="s">
-        <v>863</v>
-      </c>
-      <c r="E136" s="9"/>
-      <c r="F136" s="4"/>
+      <c r="D136" s="6" t="s">
+        <v>861</v>
+      </c>
+      <c r="E136" s="9" t="s">
+        <v>862</v>
+      </c>
+      <c r="F136" s="4">
+        <v>2</v>
+      </c>
       <c r="G136" s="4"/>
       <c r="H136" s="9"/>
-      <c r="I136" s="9"/>
-      <c r="J136" s="9"/>
+      <c r="I136" s="4"/>
+      <c r="J136" s="4"/>
       <c r="K136" s="4"/>
       <c r="L136" s="4"/>
       <c r="M136" s="4"/>
       <c r="N136" s="14"/>
     </row>
-    <row r="137" spans="3:14">
+    <row r="137" spans="3:14" ht="14.25" customHeight="1">
       <c r="C137" s="4">
         <v>136</v>
       </c>
-      <c r="D137" s="6" t="s">
-        <v>861</v>
-      </c>
-      <c r="E137" s="9" t="s">
-        <v>814</v>
-      </c>
+      <c r="D137" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="E137" s="9"/>
       <c r="F137" s="4"/>
       <c r="G137" s="4"/>
-      <c r="H137" s="9" t="s">
-        <v>906</v>
-      </c>
-      <c r="I137" s="9">
-        <v>1</v>
-      </c>
-      <c r="J137" s="4" t="s">
-        <v>907</v>
-      </c>
+      <c r="H137" s="9"/>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
       <c r="K137" s="4"/>
       <c r="L137" s="4"/>
       <c r="M137" s="4"/>
@@ -8029,55 +8029,57 @@
         <v>861</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>862</v>
-      </c>
-      <c r="F138" s="4">
-        <v>10</v>
-      </c>
+        <v>814</v>
+      </c>
+      <c r="F138" s="4"/>
       <c r="G138" s="4"/>
-      <c r="H138" s="9"/>
-      <c r="I138" s="9"/>
-      <c r="J138" s="4"/>
+      <c r="H138" s="9" t="s">
+        <v>905</v>
+      </c>
+      <c r="I138" s="9">
+        <v>1</v>
+      </c>
+      <c r="J138" s="4" t="s">
+        <v>906</v>
+      </c>
       <c r="K138" s="4"/>
       <c r="L138" s="4"/>
       <c r="M138" s="4"/>
       <c r="N138" s="14"/>
     </row>
-    <row r="139" spans="3:14" ht="15">
+    <row r="139" spans="3:14">
       <c r="C139" s="4">
         <v>138</v>
       </c>
-      <c r="D139" s="5" t="s">
-        <v>881</v>
-      </c>
-      <c r="E139" s="9"/>
-      <c r="F139" s="4"/>
+      <c r="D139" s="6" t="s">
+        <v>861</v>
+      </c>
+      <c r="E139" s="9" t="s">
+        <v>862</v>
+      </c>
+      <c r="F139" s="4">
+        <v>10</v>
+      </c>
       <c r="G139" s="4"/>
       <c r="H139" s="9"/>
-      <c r="I139" s="4"/>
+      <c r="I139" s="9"/>
       <c r="J139" s="4"/>
       <c r="K139" s="4"/>
       <c r="L139" s="4"/>
       <c r="M139" s="4"/>
       <c r="N139" s="14"/>
     </row>
-    <row r="140" spans="3:14">
+    <row r="140" spans="3:14" ht="15">
       <c r="C140" s="4">
         <v>139</v>
       </c>
-      <c r="D140" s="6" t="s">
-        <v>865</v>
-      </c>
-      <c r="E140" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F140" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G140" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H140" s="4"/>
+      <c r="D140" s="5" t="s">
+        <v>881</v>
+      </c>
+      <c r="E140" s="9"/>
+      <c r="F140" s="4"/>
+      <c r="G140" s="4"/>
+      <c r="H140" s="9"/>
       <c r="I140" s="4"/>
       <c r="J140" s="4"/>
       <c r="K140" s="4"/>
@@ -8096,7 +8098,7 @@
         <v>19</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>869</v>
+        <v>26</v>
       </c>
       <c r="G141" s="4" t="s">
         <v>2</v>
@@ -8120,17 +8122,13 @@
         <v>19</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>114</v>
+        <v>869</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H142" s="4">
-        <v>1</v>
-      </c>
-      <c r="I142" s="4">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H142" s="4"/>
+      <c r="I142" s="4"/>
       <c r="J142" s="4"/>
       <c r="K142" s="4"/>
       <c r="L142" s="4"/>
@@ -8148,13 +8146,17 @@
         <v>19</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H143" s="4"/>
-      <c r="I143" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="H143" s="4">
+        <v>1</v>
+      </c>
+      <c r="I143" s="4">
+        <v>1</v>
+      </c>
       <c r="J143" s="4"/>
       <c r="K143" s="4"/>
       <c r="L143" s="4"/>
@@ -8166,17 +8168,19 @@
         <v>143</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>862</v>
-      </c>
-      <c r="F144" s="4">
-        <v>2</v>
-      </c>
-      <c r="G144" s="4"/>
-      <c r="H144" s="9"/>
-      <c r="I144" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H144" s="4"/>
+      <c r="I144" s="4"/>
       <c r="J144" s="4"/>
       <c r="K144" s="4"/>
       <c r="L144" s="4"/>
@@ -8188,20 +8192,16 @@
         <v>144</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>847</v>
+        <v>861</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="F145" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="G145" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H145" s="9" t="s">
-        <v>878</v>
-      </c>
+        <v>862</v>
+      </c>
+      <c r="F145" s="4">
+        <v>2</v>
+      </c>
+      <c r="G145" s="4"/>
+      <c r="H145" s="9"/>
       <c r="I145" s="9"/>
       <c r="J145" s="4"/>
       <c r="K145" s="4"/>
@@ -8226,9 +8226,9 @@
         <v>60</v>
       </c>
       <c r="H146" s="9" t="s">
-        <v>882</v>
-      </c>
-      <c r="I146" s="4"/>
+        <v>878</v>
+      </c>
+      <c r="I146" s="9"/>
       <c r="J146" s="4"/>
       <c r="K146" s="4"/>
       <c r="L146" s="4"/>
@@ -8240,7 +8240,7 @@
         <v>146</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="E147" s="9" t="s">
         <v>226</v>
@@ -8252,7 +8252,7 @@
         <v>60</v>
       </c>
       <c r="H147" s="9" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="I147" s="4"/>
       <c r="J147" s="4"/>
@@ -8266,18 +8266,20 @@
         <v>147</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>847</v>
+        <v>854</v>
       </c>
       <c r="E148" s="9" t="s">
         <v>226</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>100</v>
+        <v>231</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H148" s="9"/>
+        <v>60</v>
+      </c>
+      <c r="H148" s="9" t="s">
+        <v>884</v>
+      </c>
       <c r="I148" s="4"/>
       <c r="J148" s="4"/>
       <c r="K148" s="4"/>
@@ -8290,61 +8292,61 @@
         <v>148</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>861</v>
-      </c>
-      <c r="E149" s="4" t="s">
-        <v>885</v>
-      </c>
-      <c r="F149" s="4"/>
-      <c r="G149" s="9"/>
-      <c r="H149" s="4" t="s">
-        <v>887</v>
-      </c>
-      <c r="I149" s="4" t="s">
-        <v>905</v>
-      </c>
-      <c r="J149" s="4" t="b">
-        <v>1</v>
-      </c>
+        <v>847</v>
+      </c>
+      <c r="E149" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G149" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H149" s="9"/>
+      <c r="I149" s="4"/>
+      <c r="J149" s="4"/>
       <c r="K149" s="4"/>
       <c r="L149" s="4"/>
       <c r="M149" s="4"/>
-      <c r="N149" s="17"/>
-    </row>
-    <row r="150" spans="3:14" ht="15">
+      <c r="N149" s="14"/>
+    </row>
+    <row r="150" spans="3:14">
       <c r="C150" s="4">
         <v>149</v>
       </c>
-      <c r="D150" s="5" t="s">
-        <v>867</v>
-      </c>
-      <c r="E150" s="9"/>
+      <c r="D150" s="6" t="s">
+        <v>861</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>885</v>
+      </c>
       <c r="F150" s="4"/>
-      <c r="G150" s="4"/>
-      <c r="H150" s="9"/>
-      <c r="I150" s="4"/>
-      <c r="J150" s="4"/>
+      <c r="G150" s="9"/>
+      <c r="H150" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="I150" s="4" t="s">
+        <v>904</v>
+      </c>
+      <c r="J150" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="K150" s="4"/>
       <c r="L150" s="4"/>
       <c r="M150" s="4"/>
-      <c r="N150" s="14"/>
-    </row>
-    <row r="151" spans="3:14">
+      <c r="N150" s="17"/>
+    </row>
+    <row r="151" spans="3:14" ht="15">
       <c r="C151" s="4">
         <v>150</v>
       </c>
-      <c r="D151" s="6" t="s">
-        <v>847</v>
-      </c>
-      <c r="E151" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F151" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G151" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D151" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="E151" s="9"/>
+      <c r="F151" s="4"/>
+      <c r="G151" s="4"/>
       <c r="H151" s="9"/>
       <c r="I151" s="4"/>
       <c r="J151" s="4"/>
@@ -8364,7 +8366,7 @@
         <v>19</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>868</v>
+        <v>22</v>
       </c>
       <c r="G152" s="4" t="s">
         <v>2</v>
@@ -8385,17 +8387,15 @@
         <v>847</v>
       </c>
       <c r="E153" s="9" t="s">
-        <v>632</v>
+        <v>19</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>633</v>
+        <v>868</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H153" s="4" t="s">
-        <v>905</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H153" s="9"/>
       <c r="I153" s="4"/>
       <c r="J153" s="4"/>
       <c r="K153" s="4"/>
@@ -8414,12 +8414,14 @@
         <v>632</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H154" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="H154" s="4" t="s">
+        <v>912</v>
+      </c>
       <c r="I154" s="4"/>
       <c r="J154" s="4"/>
       <c r="K154" s="4"/>
@@ -8435,10 +8437,10 @@
         <v>847</v>
       </c>
       <c r="E155" s="9" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="G155" s="4" t="s">
         <v>2</v>
@@ -8462,7 +8464,7 @@
         <v>641</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>17</v>
+        <v>643</v>
       </c>
       <c r="G156" s="4" t="s">
         <v>2</v>
@@ -8483,10 +8485,10 @@
         <v>847</v>
       </c>
       <c r="E157" s="9" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="G157" s="4" t="s">
         <v>2</v>
@@ -8499,17 +8501,23 @@
       <c r="M157" s="4"/>
       <c r="N157" s="14"/>
     </row>
-    <row r="158" spans="3:14" ht="15">
+    <row r="158" spans="3:14">
       <c r="C158" s="4">
         <v>157</v>
       </c>
-      <c r="D158" s="5" t="s">
-        <v>872</v>
-      </c>
-      <c r="E158" s="4"/>
-      <c r="F158" s="4"/>
-      <c r="G158" s="4"/>
-      <c r="H158" s="4"/>
+      <c r="D158" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="E158" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="F158" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G158" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H158" s="9"/>
       <c r="I158" s="4"/>
       <c r="J158" s="4"/>
       <c r="K158" s="4"/>
@@ -8517,22 +8525,16 @@
       <c r="M158" s="4"/>
       <c r="N158" s="14"/>
     </row>
-    <row r="159" spans="3:14">
+    <row r="159" spans="3:14" ht="15">
       <c r="C159" s="4">
         <v>158</v>
       </c>
-      <c r="D159" s="6" t="s">
-        <v>847</v>
-      </c>
-      <c r="E159" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F159" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G159" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D159" s="5" t="s">
+        <v>872</v>
+      </c>
+      <c r="E159" s="4"/>
+      <c r="F159" s="4"/>
+      <c r="G159" s="4"/>
       <c r="H159" s="4"/>
       <c r="I159" s="4"/>
       <c r="J159" s="4"/>
@@ -8552,13 +8554,13 @@
         <v>19</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>873</v>
-      </c>
-      <c r="H160" s="9"/>
-      <c r="I160" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="H160" s="4"/>
+      <c r="I160" s="4"/>
       <c r="J160" s="4"/>
       <c r="K160" s="4"/>
       <c r="L160" s="4"/>
@@ -8576,10 +8578,10 @@
         <v>19</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>114</v>
+        <v>27</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>2</v>
+        <v>873</v>
       </c>
       <c r="H161" s="9"/>
       <c r="I161" s="9"/>
@@ -8603,12 +8605,10 @@
         <v>114</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H162" s="4" t="s">
-        <v>860</v>
-      </c>
-      <c r="I162" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="H162" s="9"/>
+      <c r="I162" s="9"/>
       <c r="J162" s="4"/>
       <c r="K162" s="4"/>
       <c r="L162" s="4"/>
@@ -8626,12 +8626,14 @@
         <v>19</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H163" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="H163" s="4" t="s">
+        <v>860</v>
+      </c>
       <c r="I163" s="4"/>
       <c r="J163" s="4"/>
       <c r="K163" s="4"/>
@@ -8644,15 +8646,17 @@
         <v>163</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>861</v>
+        <v>847</v>
       </c>
       <c r="E164" s="9" t="s">
-        <v>862</v>
-      </c>
-      <c r="F164" s="4">
-        <v>2</v>
-      </c>
-      <c r="G164" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="F164" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G164" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H164" s="9"/>
       <c r="I164" s="4"/>
       <c r="J164" s="4"/>
@@ -8661,45 +8665,41 @@
       <c r="M164" s="4"/>
       <c r="N164" s="14"/>
     </row>
-    <row r="165" spans="3:14" ht="15">
+    <row r="165" spans="3:14">
       <c r="C165" s="4">
         <v>164</v>
       </c>
-      <c r="D165" s="5" t="s">
-        <v>863</v>
-      </c>
-      <c r="E165" s="9"/>
-      <c r="F165" s="4"/>
+      <c r="D165" s="6" t="s">
+        <v>861</v>
+      </c>
+      <c r="E165" s="9" t="s">
+        <v>862</v>
+      </c>
+      <c r="F165" s="4">
+        <v>2</v>
+      </c>
       <c r="G165" s="4"/>
       <c r="H165" s="9"/>
-      <c r="I165" s="9"/>
-      <c r="J165" s="9"/>
+      <c r="I165" s="4"/>
+      <c r="J165" s="4"/>
       <c r="K165" s="4"/>
       <c r="L165" s="4"/>
       <c r="M165" s="4"/>
       <c r="N165" s="14"/>
     </row>
-    <row r="166" spans="3:14">
+    <row r="166" spans="3:14" ht="15">
       <c r="C166" s="4">
         <v>165</v>
       </c>
-      <c r="D166" s="6" t="s">
-        <v>861</v>
-      </c>
-      <c r="E166" s="9" t="s">
-        <v>814</v>
-      </c>
+      <c r="D166" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="E166" s="9"/>
       <c r="F166" s="4"/>
       <c r="G166" s="4"/>
-      <c r="H166" s="9" t="s">
-        <v>906</v>
-      </c>
-      <c r="I166" s="9">
-        <v>1</v>
-      </c>
-      <c r="J166" s="4" t="s">
-        <v>907</v>
-      </c>
+      <c r="H166" s="9"/>
+      <c r="I166" s="9"/>
+      <c r="J166" s="9"/>
       <c r="K166" s="4"/>
       <c r="L166" s="4"/>
       <c r="M166" s="4"/>
@@ -8713,54 +8713,56 @@
         <v>861</v>
       </c>
       <c r="E167" s="9" t="s">
-        <v>862</v>
-      </c>
-      <c r="F167" s="4">
-        <v>10</v>
-      </c>
+        <v>814</v>
+      </c>
+      <c r="F167" s="4"/>
       <c r="G167" s="4"/>
-      <c r="H167" s="9"/>
-      <c r="I167" s="9"/>
-      <c r="J167" s="4"/>
+      <c r="H167" s="9" t="s">
+        <v>905</v>
+      </c>
+      <c r="I167" s="9">
+        <v>1</v>
+      </c>
+      <c r="J167" s="4" t="s">
+        <v>906</v>
+      </c>
       <c r="K167" s="4"/>
       <c r="L167" s="4"/>
       <c r="M167" s="4"/>
       <c r="N167" s="14"/>
     </row>
-    <row r="168" spans="3:14" ht="15">
+    <row r="168" spans="3:14">
       <c r="C168" s="4">
         <v>167</v>
       </c>
-      <c r="D168" s="5" t="s">
-        <v>894</v>
-      </c>
-      <c r="E168" s="4"/>
-      <c r="F168" s="4"/>
+      <c r="D168" s="6" t="s">
+        <v>861</v>
+      </c>
+      <c r="E168" s="9" t="s">
+        <v>862</v>
+      </c>
+      <c r="F168" s="4">
+        <v>10</v>
+      </c>
       <c r="G168" s="4"/>
-      <c r="H168" s="4"/>
-      <c r="I168" s="4"/>
+      <c r="H168" s="9"/>
+      <c r="I168" s="9"/>
       <c r="J168" s="4"/>
       <c r="K168" s="4"/>
       <c r="L168" s="4"/>
       <c r="M168" s="4"/>
       <c r="N168" s="14"/>
     </row>
-    <row r="169" spans="3:14">
+    <row r="169" spans="3:14" ht="15">
       <c r="C169" s="4">
         <v>168</v>
       </c>
-      <c r="D169" s="6" t="s">
-        <v>865</v>
-      </c>
-      <c r="E169" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F169" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G169" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D169" s="5" t="s">
+        <v>894</v>
+      </c>
+      <c r="E169" s="4"/>
+      <c r="F169" s="4"/>
+      <c r="G169" s="4"/>
       <c r="H169" s="4"/>
       <c r="I169" s="4"/>
       <c r="J169" s="4"/>
@@ -8780,7 +8782,7 @@
         <v>19</v>
       </c>
       <c r="F170" s="4" t="s">
-        <v>869</v>
+        <v>26</v>
       </c>
       <c r="G170" s="4" t="s">
         <v>2</v>
@@ -8804,17 +8806,13 @@
         <v>19</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>114</v>
+        <v>869</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H171" s="4">
-        <v>1</v>
-      </c>
-      <c r="I171" s="4">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H171" s="4"/>
+      <c r="I171" s="4"/>
       <c r="J171" s="4"/>
       <c r="K171" s="4"/>
       <c r="L171" s="4"/>
@@ -8832,13 +8830,17 @@
         <v>19</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H172" s="4"/>
-      <c r="I172" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="H172" s="4">
+        <v>1</v>
+      </c>
+      <c r="I172" s="4">
+        <v>1</v>
+      </c>
       <c r="J172" s="4"/>
       <c r="K172" s="4"/>
       <c r="L172" s="4"/>
@@ -8850,17 +8852,19 @@
         <v>172</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="E173" s="9" t="s">
-        <v>862</v>
-      </c>
-      <c r="F173" s="4">
-        <v>2</v>
-      </c>
-      <c r="G173" s="4"/>
-      <c r="H173" s="9"/>
-      <c r="I173" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="F173" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G173" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H173" s="4"/>
+      <c r="I173" s="4"/>
       <c r="J173" s="4"/>
       <c r="K173" s="4"/>
       <c r="L173" s="4"/>
@@ -8872,20 +8876,16 @@
         <v>173</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>847</v>
+        <v>861</v>
       </c>
       <c r="E174" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="F174" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="G174" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H174" s="9" t="s">
-        <v>878</v>
-      </c>
+        <v>862</v>
+      </c>
+      <c r="F174" s="4">
+        <v>2</v>
+      </c>
+      <c r="G174" s="4"/>
+      <c r="H174" s="9"/>
       <c r="I174" s="9"/>
       <c r="J174" s="4"/>
       <c r="K174" s="4"/>
@@ -8910,9 +8910,9 @@
         <v>61</v>
       </c>
       <c r="H175" s="9" t="s">
-        <v>882</v>
-      </c>
-      <c r="I175" s="4"/>
+        <v>878</v>
+      </c>
+      <c r="I175" s="9"/>
       <c r="J175" s="4"/>
       <c r="K175" s="4"/>
       <c r="L175" s="4"/>
@@ -8930,20 +8930,16 @@
         <v>226</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="H176" s="9" t="s">
-        <v>870</v>
-      </c>
-      <c r="I176" s="9" t="s">
-        <v>871</v>
-      </c>
-      <c r="J176" s="4" t="s">
-        <v>909</v>
-      </c>
+        <v>882</v>
+      </c>
+      <c r="I176" s="4"/>
+      <c r="J176" s="4"/>
       <c r="K176" s="4"/>
       <c r="L176" s="4"/>
       <c r="M176" s="4"/>
@@ -8960,14 +8956,20 @@
         <v>226</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>100</v>
+        <v>235</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H177" s="4"/>
-      <c r="I177" s="4"/>
-      <c r="J177" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H177" s="9" t="s">
+        <v>870</v>
+      </c>
+      <c r="I177" s="9" t="s">
+        <v>871</v>
+      </c>
+      <c r="J177" s="4" t="s">
+        <v>908</v>
+      </c>
       <c r="K177" s="4"/>
       <c r="L177" s="4"/>
       <c r="M177" s="4"/>
@@ -8978,58 +8980,58 @@
         <v>177</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>861</v>
+        <v>847</v>
       </c>
       <c r="E178" s="9" t="s">
-        <v>862</v>
-      </c>
-      <c r="F178" s="4">
-        <v>1</v>
-      </c>
-      <c r="G178" s="4"/>
-      <c r="H178" s="9"/>
-      <c r="I178" s="9"/>
+        <v>226</v>
+      </c>
+      <c r="F178" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G178" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H178" s="4"/>
+      <c r="I178" s="4"/>
       <c r="J178" s="4"/>
       <c r="K178" s="4"/>
       <c r="L178" s="4"/>
       <c r="M178" s="4"/>
       <c r="N178" s="14"/>
     </row>
-    <row r="179" spans="3:14" ht="15">
+    <row r="179" spans="3:14">
       <c r="C179" s="4">
         <v>178</v>
       </c>
-      <c r="D179" s="5" t="s">
-        <v>895</v>
-      </c>
-      <c r="E179" s="9"/>
-      <c r="F179" s="4"/>
+      <c r="D179" s="6" t="s">
+        <v>861</v>
+      </c>
+      <c r="E179" s="9" t="s">
+        <v>862</v>
+      </c>
+      <c r="F179" s="4">
+        <v>1</v>
+      </c>
       <c r="G179" s="4"/>
-      <c r="H179" s="15"/>
-      <c r="I179" s="4"/>
+      <c r="H179" s="9"/>
+      <c r="I179" s="9"/>
       <c r="J179" s="4"/>
       <c r="K179" s="4"/>
       <c r="L179" s="4"/>
       <c r="M179" s="4"/>
       <c r="N179" s="14"/>
     </row>
-    <row r="180" spans="3:14">
+    <row r="180" spans="3:14" ht="15">
       <c r="C180" s="4">
         <v>179</v>
       </c>
-      <c r="D180" s="6" t="s">
-        <v>847</v>
-      </c>
-      <c r="E180" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F180" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G180" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H180" s="9"/>
+      <c r="D180" s="5" t="s">
+        <v>895</v>
+      </c>
+      <c r="E180" s="9"/>
+      <c r="F180" s="4"/>
+      <c r="G180" s="4"/>
+      <c r="H180" s="15"/>
       <c r="I180" s="4"/>
       <c r="J180" s="4"/>
       <c r="K180" s="4"/>
@@ -9048,7 +9050,7 @@
         <v>19</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>868</v>
+        <v>22</v>
       </c>
       <c r="G181" s="4" t="s">
         <v>2</v>
@@ -9069,17 +9071,15 @@
         <v>847</v>
       </c>
       <c r="E182" s="9" t="s">
-        <v>632</v>
+        <v>19</v>
       </c>
       <c r="F182" s="4" t="s">
-        <v>633</v>
+        <v>868</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H182" s="4" t="s">
-        <v>905</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H182" s="9"/>
       <c r="I182" s="4"/>
       <c r="J182" s="4"/>
       <c r="K182" s="4"/>
@@ -9098,12 +9098,14 @@
         <v>632</v>
       </c>
       <c r="F183" s="4" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H183" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="H183" s="4" t="s">
+        <v>912</v>
+      </c>
       <c r="I183" s="4"/>
       <c r="J183" s="4"/>
       <c r="K183" s="4"/>
@@ -9119,10 +9121,10 @@
         <v>847</v>
       </c>
       <c r="E184" s="9" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="F184" s="4" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="G184" s="4" t="s">
         <v>2</v>
@@ -9146,7 +9148,7 @@
         <v>641</v>
       </c>
       <c r="F185" s="4" t="s">
-        <v>17</v>
+        <v>642</v>
       </c>
       <c r="G185" s="4" t="s">
         <v>2</v>
@@ -9167,10 +9169,10 @@
         <v>847</v>
       </c>
       <c r="E186" s="9" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
       <c r="F186" s="4" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="G186" s="4" t="s">
         <v>2</v>
@@ -9183,17 +9185,23 @@
       <c r="M186" s="4"/>
       <c r="N186" s="14"/>
     </row>
-    <row r="187" spans="3:14" ht="15">
+    <row r="187" spans="3:14">
       <c r="C187" s="4">
         <v>186</v>
       </c>
-      <c r="D187" s="5" t="s">
-        <v>872</v>
-      </c>
-      <c r="E187" s="4"/>
-      <c r="F187" s="4"/>
-      <c r="G187" s="4"/>
-      <c r="H187" s="4"/>
+      <c r="D187" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="E187" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="F187" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G187" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H187" s="9"/>
       <c r="I187" s="4"/>
       <c r="J187" s="4"/>
       <c r="K187" s="4"/>
@@ -9201,22 +9209,16 @@
       <c r="M187" s="4"/>
       <c r="N187" s="14"/>
     </row>
-    <row r="188" spans="3:14">
+    <row r="188" spans="3:14" ht="15">
       <c r="C188" s="4">
         <v>187</v>
       </c>
-      <c r="D188" s="6" t="s">
-        <v>847</v>
-      </c>
-      <c r="E188" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F188" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G188" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D188" s="5" t="s">
+        <v>872</v>
+      </c>
+      <c r="E188" s="4"/>
+      <c r="F188" s="4"/>
+      <c r="G188" s="4"/>
       <c r="H188" s="4"/>
       <c r="I188" s="4"/>
       <c r="J188" s="4"/>
@@ -9236,13 +9238,13 @@
         <v>19</v>
       </c>
       <c r="F189" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>873</v>
-      </c>
-      <c r="H189" s="9"/>
-      <c r="I189" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="H189" s="4"/>
+      <c r="I189" s="4"/>
       <c r="J189" s="4"/>
       <c r="K189" s="4"/>
       <c r="L189" s="4"/>
@@ -9260,10 +9262,10 @@
         <v>19</v>
       </c>
       <c r="F190" s="4" t="s">
-        <v>114</v>
+        <v>27</v>
       </c>
       <c r="G190" s="4" t="s">
-        <v>2</v>
+        <v>873</v>
       </c>
       <c r="H190" s="9"/>
       <c r="I190" s="9"/>
@@ -9287,12 +9289,10 @@
         <v>114</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H191" s="4" t="s">
-        <v>860</v>
-      </c>
-      <c r="I191" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="H191" s="9"/>
+      <c r="I191" s="9"/>
       <c r="J191" s="4"/>
       <c r="K191" s="4"/>
       <c r="L191" s="4"/>
@@ -9310,12 +9310,14 @@
         <v>19</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H192" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="H192" s="4" t="s">
+        <v>860</v>
+      </c>
       <c r="I192" s="4"/>
       <c r="J192" s="4"/>
       <c r="K192" s="4"/>
@@ -9328,15 +9330,17 @@
         <v>192</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>861</v>
+        <v>847</v>
       </c>
       <c r="E193" s="9" t="s">
-        <v>862</v>
-      </c>
-      <c r="F193" s="4">
-        <v>2</v>
-      </c>
-      <c r="G193" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="F193" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G193" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H193" s="9"/>
       <c r="I193" s="4"/>
       <c r="J193" s="4"/>
@@ -9345,45 +9349,41 @@
       <c r="M193" s="4"/>
       <c r="N193" s="14"/>
     </row>
-    <row r="194" spans="3:14" ht="15">
+    <row r="194" spans="3:14">
       <c r="C194" s="4">
         <v>193</v>
       </c>
-      <c r="D194" s="5" t="s">
-        <v>863</v>
-      </c>
-      <c r="E194" s="9"/>
-      <c r="F194" s="4"/>
+      <c r="D194" s="6" t="s">
+        <v>861</v>
+      </c>
+      <c r="E194" s="9" t="s">
+        <v>862</v>
+      </c>
+      <c r="F194" s="4">
+        <v>2</v>
+      </c>
       <c r="G194" s="4"/>
       <c r="H194" s="9"/>
-      <c r="I194" s="9"/>
-      <c r="J194" s="9"/>
+      <c r="I194" s="4"/>
+      <c r="J194" s="4"/>
       <c r="K194" s="4"/>
       <c r="L194" s="4"/>
       <c r="M194" s="4"/>
       <c r="N194" s="14"/>
     </row>
-    <row r="195" spans="3:14">
+    <row r="195" spans="3:14" ht="15">
       <c r="C195" s="4">
         <v>194</v>
       </c>
-      <c r="D195" s="6" t="s">
-        <v>861</v>
-      </c>
-      <c r="E195" s="9" t="s">
-        <v>814</v>
-      </c>
+      <c r="D195" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="E195" s="9"/>
       <c r="F195" s="4"/>
       <c r="G195" s="4"/>
-      <c r="H195" s="9" t="s">
-        <v>906</v>
-      </c>
-      <c r="I195" s="9">
-        <v>1</v>
-      </c>
-      <c r="J195" s="4" t="s">
-        <v>908</v>
-      </c>
+      <c r="H195" s="9"/>
+      <c r="I195" s="9"/>
+      <c r="J195" s="9"/>
       <c r="K195" s="4"/>
       <c r="L195" s="4"/>
       <c r="M195" s="4"/>
@@ -9397,54 +9397,56 @@
         <v>861</v>
       </c>
       <c r="E196" s="9" t="s">
-        <v>862</v>
-      </c>
-      <c r="F196" s="4">
-        <v>10</v>
-      </c>
+        <v>814</v>
+      </c>
+      <c r="F196" s="4"/>
       <c r="G196" s="4"/>
-      <c r="H196" s="9"/>
-      <c r="I196" s="9"/>
-      <c r="J196" s="4"/>
+      <c r="H196" s="9" t="s">
+        <v>905</v>
+      </c>
+      <c r="I196" s="9">
+        <v>1</v>
+      </c>
+      <c r="J196" s="4" t="s">
+        <v>907</v>
+      </c>
       <c r="K196" s="4"/>
       <c r="L196" s="4"/>
       <c r="M196" s="4"/>
       <c r="N196" s="14"/>
     </row>
-    <row r="197" spans="3:14" ht="15">
+    <row r="197" spans="3:14">
       <c r="C197" s="4">
         <v>196</v>
       </c>
-      <c r="D197" s="5" t="s">
-        <v>896</v>
-      </c>
-      <c r="E197" s="9"/>
-      <c r="F197" s="4"/>
+      <c r="D197" s="6" t="s">
+        <v>861</v>
+      </c>
+      <c r="E197" s="9" t="s">
+        <v>862</v>
+      </c>
+      <c r="F197" s="4">
+        <v>10</v>
+      </c>
       <c r="G197" s="4"/>
-      <c r="H197" s="4"/>
-      <c r="I197" s="4"/>
+      <c r="H197" s="9"/>
+      <c r="I197" s="9"/>
       <c r="J197" s="4"/>
       <c r="K197" s="4"/>
       <c r="L197" s="4"/>
       <c r="M197" s="4"/>
       <c r="N197" s="14"/>
     </row>
-    <row r="198" spans="3:14">
+    <row r="198" spans="3:14" ht="15">
       <c r="C198" s="4">
         <v>197</v>
       </c>
-      <c r="D198" s="6" t="s">
-        <v>865</v>
-      </c>
-      <c r="E198" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F198" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G198" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D198" s="5" t="s">
+        <v>896</v>
+      </c>
+      <c r="E198" s="9"/>
+      <c r="F198" s="4"/>
+      <c r="G198" s="4"/>
       <c r="H198" s="4"/>
       <c r="I198" s="4"/>
       <c r="J198" s="4"/>
@@ -9464,7 +9466,7 @@
         <v>19</v>
       </c>
       <c r="F199" s="4" t="s">
-        <v>869</v>
+        <v>26</v>
       </c>
       <c r="G199" s="4" t="s">
         <v>2</v>
@@ -9488,17 +9490,13 @@
         <v>19</v>
       </c>
       <c r="F200" s="4" t="s">
-        <v>114</v>
+        <v>869</v>
       </c>
       <c r="G200" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H200" s="4">
-        <v>1</v>
-      </c>
-      <c r="I200" s="4">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H200" s="4"/>
+      <c r="I200" s="4"/>
       <c r="J200" s="4"/>
       <c r="K200" s="4"/>
       <c r="L200" s="4"/>
@@ -9516,13 +9514,17 @@
         <v>19</v>
       </c>
       <c r="F201" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G201" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H201" s="4"/>
-      <c r="I201" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="H201" s="4">
+        <v>1</v>
+      </c>
+      <c r="I201" s="4">
+        <v>1</v>
+      </c>
       <c r="J201" s="4"/>
       <c r="K201" s="4"/>
       <c r="L201" s="4"/>
@@ -9534,17 +9536,19 @@
         <v>201</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="E202" s="9" t="s">
-        <v>862</v>
-      </c>
-      <c r="F202" s="4">
-        <v>2</v>
-      </c>
-      <c r="G202" s="4"/>
-      <c r="H202" s="9"/>
-      <c r="I202" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="F202" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G202" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H202" s="4"/>
+      <c r="I202" s="4"/>
       <c r="J202" s="4"/>
       <c r="K202" s="4"/>
       <c r="L202" s="4"/>
@@ -9556,20 +9560,16 @@
         <v>202</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>847</v>
+        <v>861</v>
       </c>
       <c r="E203" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="F203" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="G203" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H203" s="9" t="s">
-        <v>878</v>
-      </c>
+        <v>862</v>
+      </c>
+      <c r="F203" s="4">
+        <v>2</v>
+      </c>
+      <c r="G203" s="4"/>
+      <c r="H203" s="9"/>
       <c r="I203" s="9"/>
       <c r="J203" s="4"/>
       <c r="K203" s="4"/>
@@ -9594,9 +9594,9 @@
         <v>60</v>
       </c>
       <c r="H204" s="9" t="s">
-        <v>882</v>
-      </c>
-      <c r="I204" s="4"/>
+        <v>878</v>
+      </c>
+      <c r="I204" s="9"/>
       <c r="J204" s="4"/>
       <c r="K204" s="4"/>
       <c r="L204" s="4"/>
@@ -9614,20 +9614,16 @@
         <v>226</v>
       </c>
       <c r="F205" s="4" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G205" s="4" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="H205" s="9" t="s">
-        <v>870</v>
-      </c>
-      <c r="I205" s="4" t="s">
-        <v>897</v>
-      </c>
-      <c r="J205" s="4" t="s">
-        <v>909</v>
-      </c>
+        <v>882</v>
+      </c>
+      <c r="I205" s="4"/>
+      <c r="J205" s="4"/>
       <c r="K205" s="4"/>
       <c r="L205" s="4"/>
       <c r="M205" s="4"/>
@@ -9644,29 +9640,41 @@
         <v>226</v>
       </c>
       <c r="F206" s="4" t="s">
-        <v>100</v>
+        <v>235</v>
       </c>
       <c r="G206" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H206" s="9"/>
-      <c r="I206" s="4"/>
-      <c r="J206" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H206" s="9" t="s">
+        <v>870</v>
+      </c>
+      <c r="I206" s="4" t="s">
+        <v>897</v>
+      </c>
+      <c r="J206" s="4" t="s">
+        <v>908</v>
+      </c>
       <c r="K206" s="4"/>
       <c r="L206" s="4"/>
       <c r="M206" s="4"/>
       <c r="N206" s="14"/>
     </row>
-    <row r="207" spans="3:14" ht="15">
+    <row r="207" spans="3:14">
       <c r="C207" s="4">
         <v>206</v>
       </c>
-      <c r="D207" s="5" t="s">
-        <v>864</v>
-      </c>
-      <c r="E207" s="9"/>
-      <c r="F207" s="4"/>
-      <c r="G207" s="4"/>
+      <c r="D207" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="E207" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="F207" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G207" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H207" s="9"/>
       <c r="I207" s="4"/>
       <c r="J207" s="4"/>
@@ -9675,19 +9683,15 @@
       <c r="M207" s="4"/>
       <c r="N207" s="14"/>
     </row>
-    <row r="208" spans="3:14">
+    <row r="208" spans="3:14" ht="15">
       <c r="C208" s="4">
         <v>207</v>
       </c>
-      <c r="D208" s="6" t="s">
-        <v>846</v>
-      </c>
-      <c r="E208" s="9" t="s">
-        <v>811</v>
-      </c>
-      <c r="F208" s="4">
-        <v>2</v>
-      </c>
+      <c r="D208" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="E208" s="9"/>
+      <c r="F208" s="4"/>
       <c r="G208" s="4"/>
       <c r="H208" s="9"/>
       <c r="I208" s="4"/>
@@ -9702,19 +9706,17 @@
         <v>208</v>
       </c>
       <c r="D209" s="6" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E209" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F209" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G209" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>811</v>
+      </c>
+      <c r="F209" s="4">
+        <v>2</v>
+      </c>
+      <c r="G209" s="4"/>
       <c r="H209" s="9"/>
-      <c r="I209" s="9"/>
+      <c r="I209" s="4"/>
       <c r="J209" s="4"/>
       <c r="K209" s="4"/>
       <c r="L209" s="4"/>
@@ -9732,7 +9734,7 @@
         <v>19</v>
       </c>
       <c r="F210" s="4" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="G210" s="4" t="s">
         <v>2</v>
@@ -9750,28 +9752,26 @@
         <v>210</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>865</v>
+        <v>847</v>
       </c>
       <c r="E211" s="9" t="s">
-        <v>866</v>
+        <v>19</v>
       </c>
       <c r="F211" s="4" t="s">
-        <v>633</v>
+        <v>79</v>
       </c>
       <c r="G211" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H211" s="4" t="s">
-        <v>860</v>
-      </c>
-      <c r="I211" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="H211" s="9"/>
+      <c r="I211" s="9"/>
       <c r="J211" s="4"/>
       <c r="K211" s="4"/>
       <c r="L211" s="4"/>
       <c r="M211" s="4"/>
       <c r="N211" s="14"/>
     </row>
-    <row r="212" spans="3:15" ht="14.25">
+    <row r="212" spans="3:15">
       <c r="C212" s="4">
         <v>211</v>
       </c>
@@ -9782,12 +9782,14 @@
         <v>866</v>
       </c>
       <c r="F212" s="4" t="s">
-        <v>215</v>
+        <v>633</v>
       </c>
       <c r="G212" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H212" s="16"/>
+        <v>3</v>
+      </c>
+      <c r="H212" s="4" t="s">
+        <v>860</v>
+      </c>
       <c r="I212" s="4"/>
       <c r="J212" s="4"/>
       <c r="K212" s="4"/>
@@ -9795,23 +9797,23 @@
       <c r="M212" s="4"/>
       <c r="N212" s="14"/>
     </row>
-    <row r="213" spans="3:15">
+    <row r="213" spans="3:15" ht="14.25">
       <c r="C213" s="4">
         <v>212</v>
       </c>
       <c r="D213" s="6" t="s">
         <v>865</v>
       </c>
-      <c r="E213" s="4" t="s">
-        <v>640</v>
+      <c r="E213" s="9" t="s">
+        <v>866</v>
       </c>
       <c r="F213" s="4" t="s">
-        <v>257</v>
+        <v>215</v>
       </c>
       <c r="G213" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H213" s="9"/>
+      <c r="H213" s="16"/>
       <c r="I213" s="4"/>
       <c r="J213" s="4"/>
       <c r="K213" s="4"/>
@@ -9826,17 +9828,17 @@
       <c r="D214" s="6" t="s">
         <v>865</v>
       </c>
-      <c r="E214" s="9" t="s">
-        <v>866</v>
+      <c r="E214" s="4" t="s">
+        <v>640</v>
       </c>
       <c r="F214" s="4" t="s">
-        <v>100</v>
+        <v>257</v>
       </c>
       <c r="G214" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H214" s="9"/>
-      <c r="I214" s="9"/>
+      <c r="I214" s="4"/>
       <c r="J214" s="4"/>
       <c r="K214" s="4"/>
       <c r="L214" s="4"/>
@@ -9848,13 +9850,13 @@
         <v>214</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>847</v>
+        <v>865</v>
       </c>
       <c r="E215" s="9" t="s">
-        <v>19</v>
+        <v>866</v>
       </c>
       <c r="F215" s="4" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="G215" s="4" t="s">
         <v>2</v>
@@ -9866,7 +9868,6 @@
       <c r="L215" s="4"/>
       <c r="M215" s="4"/>
       <c r="N215" s="14"/>
-      <c r="O215" s="18"/>
     </row>
     <row r="216" spans="3:15">
       <c r="C216" s="4">
@@ -9879,12 +9880,12 @@
         <v>19</v>
       </c>
       <c r="F216" s="4" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="G216" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H216" s="4"/>
+      <c r="H216" s="9"/>
       <c r="I216" s="9"/>
       <c r="J216" s="4"/>
       <c r="K216" s="4"/>
@@ -9901,18 +9902,16 @@
         <v>847</v>
       </c>
       <c r="E217" s="9" t="s">
-        <v>361</v>
+        <v>19</v>
       </c>
       <c r="F217" s="4" t="s">
-        <v>364</v>
+        <v>80</v>
       </c>
       <c r="G217" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H217" s="9" t="s">
-        <v>878</v>
-      </c>
-      <c r="I217" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="H217" s="4"/>
+      <c r="I217" s="9"/>
       <c r="J217" s="4"/>
       <c r="K217" s="4"/>
       <c r="L217" s="4"/>
@@ -9931,12 +9930,14 @@
         <v>361</v>
       </c>
       <c r="F218" s="4" t="s">
-        <v>215</v>
+        <v>364</v>
       </c>
       <c r="G218" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H218" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="H218" s="9" t="s">
+        <v>878</v>
+      </c>
       <c r="I218" s="4"/>
       <c r="J218" s="4"/>
       <c r="K218" s="4"/>
@@ -9950,16 +9951,18 @@
         <v>218</v>
       </c>
       <c r="D219" s="6" t="s">
-        <v>899</v>
+        <v>847</v>
       </c>
       <c r="E219" s="9" t="s">
-        <v>811</v>
-      </c>
-      <c r="F219" s="4">
-        <v>2</v>
-      </c>
-      <c r="G219" s="4"/>
-      <c r="H219" s="9"/>
+        <v>361</v>
+      </c>
+      <c r="F219" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="G219" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H219" s="4"/>
       <c r="I219" s="4"/>
       <c r="J219" s="4"/>
       <c r="K219" s="4"/>
@@ -9973,18 +9976,16 @@
         <v>219</v>
       </c>
       <c r="D220" s="6" t="s">
-        <v>847</v>
+        <v>899</v>
       </c>
       <c r="E220" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="F220" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G220" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H220" s="4"/>
+        <v>811</v>
+      </c>
+      <c r="F220" s="4">
+        <v>2</v>
+      </c>
+      <c r="G220" s="4"/>
+      <c r="H220" s="9"/>
       <c r="I220" s="4"/>
       <c r="J220" s="4"/>
       <c r="K220" s="4"/>
@@ -9993,9 +9994,34 @@
       <c r="N220" s="14"/>
       <c r="O220" s="18"/>
     </row>
+    <row r="221" spans="3:15">
+      <c r="C221" s="4">
+        <v>220</v>
+      </c>
+      <c r="D221" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="E221" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="F221" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G221" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H221" s="4"/>
+      <c r="I221" s="4"/>
+      <c r="J221" s="4"/>
+      <c r="K221" s="4"/>
+      <c r="L221" s="4"/>
+      <c r="M221" s="4"/>
+      <c r="N221" s="14"/>
+      <c r="O221" s="18"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N214">
+  <conditionalFormatting sqref="N2:N215">
     <cfRule type="cellIs" dxfId="3" priority="15" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -10003,7 +10029,7 @@
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N215:N220">
+  <conditionalFormatting sqref="N216:N221">
     <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -10012,22 +10038,22 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F86:F87 F100:F113 F115:F116 F89:F93 F95:F98 F2:F14 F66:F70 F57:F58 F61:F64 F16:F55 F72:F84 F118:F122 F124:F134 F165:F166 F179:F192 F194:F195 F168:F172 F174:F177 F145:F149 F136:F137 F140:F143 F151:F163 F197:F201 F203:F220">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F87:F88 F101:F114 F116:F117 F90:F94 F96:F99 F2:F14 F67:F71 F58:F59 F62:F65 F204:F221 F73:F85 F119:F123 F125:F135 F166:F167 F180:F193 F195:F196 F169:F173 F175:F178 F146:F150 F137:F138 F141:F144 F152:F164 F198:F202 F16:F56">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G212:G220 G2:G210">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G213:G221 G2:G211">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D209:D210 D195:D196 D188:D193 D180:D186 D169:D178 D140:D148 D137:D138 D130:D135 D166:D167 D159:D164 D151:D157 D116:D117 D109:D114 D101:D107 D90:D99 D61:D69 D58:D59 D51:D56 D38:D40 D17:D34 D10:D15 D8 D3:D4 D87:D88 D80:D85 D72:D78 D119:D127 D198:D206">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D210:D211 D196:D197 D189:D194 D181:D187 D170:D179 D141:D149 D138:D139 D131:D136 D167:D168 D160:D165 D152:D158 D117:D118 D110:D115 D102:D108 D91:D100 D62:D70 D59:D60 D52:D57 D38:D40 D17:D34 D10:D15 D8 D3:D4 D88:D89 D81:D86 D73:D79 D120:D128 D199:D207 D42">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E69 E150:E220 E71:E148">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E72:E149 E151:E221 E2:E70">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H89" r:id="rId1" display="http://10.130.112.3"/>
-    <hyperlink ref="H168" r:id="rId2" display="http://10.130.112.3"/>
+    <hyperlink ref="H90" r:id="rId1" display="http://10.130.112.3"/>
+    <hyperlink ref="H169" r:id="rId2" display="http://10.130.112.3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/NformTester/NformTester/keywordscripts/TST2801_AlarmUnderMaintenanceMode.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST2801_AlarmUnderMaintenanceMode.xlsx
@@ -4053,10 +4053,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_GXT_0_NAME$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>$SNMP_GXT_Ip_Port$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4086,6 +4082,10 @@
   </si>
   <si>
     <t>$SNMP_SinAuto_0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_device_0_NAME$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4637,8 +4637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B175" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H107" sqref="H107"/>
+    <sheetView tabSelected="1" topLeftCell="B125" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I150" sqref="I150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4879,10 +4879,10 @@
         <v>856</v>
       </c>
       <c r="I8" s="4" t="s">
+        <v>910</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>911</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>912</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>857</v>
@@ -5504,7 +5504,7 @@
         <v>4</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -5821,7 +5821,7 @@
         <v>2</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
@@ -6174,13 +6174,13 @@
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
       <c r="H59" s="9" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="I59" s="9">
         <v>1</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
@@ -6459,15 +6459,15 @@
         <v>861</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F71" s="4"/>
       <c r="G71" s="9"/>
       <c r="H71" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="J71" s="4" t="b">
         <v>1</v>
@@ -6560,7 +6560,7 @@
         <v>56</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
@@ -6858,13 +6858,13 @@
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
       <c r="H88" s="9" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="I88" s="9">
         <v>1</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="K88" s="4"/>
       <c r="L88" s="4"/>
@@ -7108,7 +7108,7 @@
         <v>871</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="K98" s="4"/>
       <c r="L98" s="4"/>
@@ -7244,7 +7244,7 @@
         <v>56</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="I104" s="4"/>
       <c r="J104" s="4"/>
@@ -7542,13 +7542,13 @@
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
       <c r="H117" s="9" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="I117" s="9">
         <v>1</v>
       </c>
       <c r="J117" s="4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="K117" s="4"/>
       <c r="L117" s="4"/>
@@ -7792,7 +7792,7 @@
         <v>897</v>
       </c>
       <c r="J127" s="4" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="K127" s="4"/>
       <c r="L127" s="4"/>
@@ -8034,13 +8034,13 @@
       <c r="F138" s="4"/>
       <c r="G138" s="4"/>
       <c r="H138" s="9" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="I138" s="9">
         <v>1</v>
       </c>
       <c r="J138" s="4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="K138" s="4"/>
       <c r="L138" s="4"/>
@@ -8327,7 +8327,7 @@
         <v>887</v>
       </c>
       <c r="I150" s="4" t="s">
-        <v>904</v>
+        <v>912</v>
       </c>
       <c r="J150" s="4" t="b">
         <v>1</v>
@@ -8420,7 +8420,7 @@
         <v>56</v>
       </c>
       <c r="H154" s="4" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="I154" s="4"/>
       <c r="J154" s="4"/>
@@ -8718,13 +8718,13 @@
       <c r="F167" s="4"/>
       <c r="G167" s="4"/>
       <c r="H167" s="9" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="I167" s="9">
         <v>1</v>
       </c>
       <c r="J167" s="4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="K167" s="4"/>
       <c r="L167" s="4"/>
@@ -8968,7 +8968,7 @@
         <v>871</v>
       </c>
       <c r="J177" s="4" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="K177" s="4"/>
       <c r="L177" s="4"/>
@@ -9104,7 +9104,7 @@
         <v>56</v>
       </c>
       <c r="H183" s="4" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="I183" s="4"/>
       <c r="J183" s="4"/>
@@ -9402,13 +9402,13 @@
       <c r="F196" s="4"/>
       <c r="G196" s="4"/>
       <c r="H196" s="9" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="I196" s="9">
         <v>1</v>
       </c>
       <c r="J196" s="4" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="K196" s="4"/>
       <c r="L196" s="4"/>
@@ -9652,7 +9652,7 @@
         <v>897</v>
       </c>
       <c r="J206" s="4" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="K206" s="4"/>
       <c r="L206" s="4"/>
